--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_14_22.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_14_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-51443.62283732105</v>
+        <v>-52255.85964285792</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2909833.600547333</v>
+        <v>2909833.600547329</v>
       </c>
     </row>
     <row r="8">
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1260,16 +1260,16 @@
         <v>10.00967878293136</v>
       </c>
       <c r="S9" t="n">
+        <v>8.816525072005941</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>10.00967878293136</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>301.5465712312742</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>112.7941681631685</v>
+        <v>289.557888188956</v>
       </c>
       <c r="D11" t="n">
-        <v>280.5391922334839</v>
+        <v>280.539192233484</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>321.4531458913666</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>322.8491597882405</v>
+        <v>322.8491597882406</v>
       </c>
       <c r="H11" t="n">
-        <v>235.4343762339798</v>
+        <v>15.75712414988988</v>
       </c>
       <c r="I11" t="n">
-        <v>61.82000905557405</v>
+        <v>61.82000905557413</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.55747718688167</v>
+        <v>84.55747718688175</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>131.2069945273324</v>
       </c>
       <c r="U11" t="n">
         <v>163.7369697115373</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>245.0529484714534</v>
       </c>
       <c r="W11" t="n">
-        <v>270.3530479494102</v>
+        <v>270.3530479494103</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>289.6533061821569</v>
       </c>
       <c r="Y11" t="n">
-        <v>301.0499039783556</v>
+        <v>301.0499039783557</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>96.16225684418836</v>
       </c>
       <c r="I12" t="n">
-        <v>57.8013948040433</v>
+        <v>57.80139480404411</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>41.3389243442859</v>
+        <v>41.33892434428589</v>
       </c>
       <c r="S12" t="n">
         <v>145.9321186766747</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>93.16328210597135</v>
       </c>
       <c r="C13" t="n">
-        <v>79.36327695137174</v>
+        <v>79.36327695137183</v>
       </c>
       <c r="D13" t="n">
-        <v>62.98464134895013</v>
+        <v>62.98464134895022</v>
       </c>
       <c r="E13" t="n">
-        <v>61.93239120472958</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>62.39931553291589</v>
+        <v>32.29601407482954</v>
       </c>
       <c r="G13" t="n">
-        <v>78.43302460524711</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>67.079733252061</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>46.95714478044755</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.63407987987205</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>73.57818153356997</v>
+        <v>118.8162700318315</v>
       </c>
       <c r="T13" t="n">
         <v>141.2609306242059</v>
       </c>
       <c r="U13" t="n">
-        <v>195.7486591160982</v>
+        <v>195.7486591160983</v>
       </c>
       <c r="V13" t="n">
         <v>169.5714185055969</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>194.7383045762102</v>
       </c>
       <c r="X13" t="n">
-        <v>140.3834065720132</v>
+        <v>140.3834065720133</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.2582743280809</v>
+        <v>131.258274328081</v>
       </c>
     </row>
     <row r="14">
@@ -1607,22 +1607,22 @@
         <v>301.5465712312742</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>289.5578881889559</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>15.31757513695169</v>
       </c>
       <c r="E14" t="n">
         <v>302.2813298033894</v>
       </c>
       <c r="F14" t="n">
-        <v>321.4531458913666</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>322.8491597882405</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>235.4343762339798</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>61.82000905557405</v>
@@ -1658,7 +1658,7 @@
         <v>84.55747718688167</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>131.2069945273323</v>
       </c>
       <c r="U14" t="n">
         <v>163.7369697115373</v>
@@ -1670,10 +1670,10 @@
         <v>270.3530479494102</v>
       </c>
       <c r="X14" t="n">
-        <v>147.0489861001641</v>
+        <v>289.6533061821568</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>301.0499039783556</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>41.3389243442859</v>
+        <v>41.33892434428589</v>
       </c>
       <c r="S15" t="n">
         <v>145.9321186766747</v>
@@ -1765,22 +1765,22 @@
         <v>93.16328210597126</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>79.36327695137174</v>
       </c>
       <c r="D16" t="n">
         <v>62.98464134895013</v>
       </c>
       <c r="E16" t="n">
-        <v>61.93239120472958</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>62.39931553291589</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>67.079733252061</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>140.3834065720132</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.872045484705675</v>
+        <v>114.9202085230401</v>
       </c>
     </row>
     <row r="17">
@@ -1844,22 +1844,22 @@
         <v>224.1795505202352</v>
       </c>
       <c r="C17" t="n">
-        <v>212.1908674779169</v>
+        <v>212.190867477917</v>
       </c>
       <c r="D17" t="n">
-        <v>203.1721715224449</v>
+        <v>203.172171522445</v>
       </c>
       <c r="E17" t="n">
-        <v>224.9143090923504</v>
+        <v>224.9143090923505</v>
       </c>
       <c r="F17" t="n">
-        <v>244.0861251803276</v>
+        <v>244.0861251803277</v>
       </c>
       <c r="G17" t="n">
         <v>245.4821390772015</v>
       </c>
       <c r="H17" t="n">
-        <v>158.0673555229408</v>
+        <v>158.0673555229409</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.190456475842678</v>
+        <v>7.19045647584273</v>
       </c>
       <c r="T17" t="n">
-        <v>53.83997381629331</v>
+        <v>53.83997381629337</v>
       </c>
       <c r="U17" t="n">
-        <v>86.36994900049825</v>
+        <v>86.36994900049831</v>
       </c>
       <c r="V17" t="n">
-        <v>167.6859277604143</v>
+        <v>167.6859277604144</v>
       </c>
       <c r="W17" t="n">
-        <v>192.9860272383712</v>
+        <v>192.9860272383713</v>
       </c>
       <c r="X17" t="n">
-        <v>212.2862854711178</v>
+        <v>212.2862854711179</v>
       </c>
       <c r="Y17" t="n">
         <v>223.6828832673166</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>41.3389243442859</v>
+        <v>41.33892434428589</v>
       </c>
       <c r="S18" t="n">
         <v>145.9321186766747</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.79626139493226</v>
+        <v>15.79626139493232</v>
       </c>
       <c r="C19" t="n">
-        <v>1.996256240332741</v>
+        <v>1.996256240332798</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.066003894208112</v>
+        <v>1.066003894208169</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2044,31 +2044,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>17.9720361047386</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>41.4492493207924</v>
+        <v>41.44924932079246</v>
       </c>
       <c r="T19" t="n">
-        <v>219.2463660838906</v>
+        <v>201.2743299791516</v>
       </c>
       <c r="U19" t="n">
         <v>118.3816384050592</v>
       </c>
       <c r="V19" t="n">
-        <v>92.20439779455785</v>
+        <v>92.20439779455791</v>
       </c>
       <c r="W19" t="n">
-        <v>117.3712838651711</v>
+        <v>117.3712838651712</v>
       </c>
       <c r="X19" t="n">
-        <v>63.01638586097422</v>
+        <v>63.01638586097428</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.89125361704191</v>
+        <v>53.89125361704197</v>
       </c>
     </row>
     <row r="20">
@@ -2081,22 +2081,22 @@
         <v>224.1795505202352</v>
       </c>
       <c r="C20" t="n">
-        <v>212.1908674779169</v>
+        <v>212.190867477917</v>
       </c>
       <c r="D20" t="n">
-        <v>203.1721715224449</v>
+        <v>203.172171522445</v>
       </c>
       <c r="E20" t="n">
-        <v>224.9143090923504</v>
+        <v>224.9143090923505</v>
       </c>
       <c r="F20" t="n">
-        <v>244.0861251803276</v>
+        <v>244.0861251803277</v>
       </c>
       <c r="G20" t="n">
         <v>245.4821390772015</v>
       </c>
       <c r="H20" t="n">
-        <v>158.0673555229408</v>
+        <v>158.0673555229409</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.190456475842678</v>
+        <v>7.19045647584273</v>
       </c>
       <c r="T20" t="n">
-        <v>53.83997381629331</v>
+        <v>53.83997381629337</v>
       </c>
       <c r="U20" t="n">
-        <v>86.36994900049824</v>
+        <v>86.36994900049831</v>
       </c>
       <c r="V20" t="n">
-        <v>167.6859277604143</v>
+        <v>167.6859277604144</v>
       </c>
       <c r="W20" t="n">
-        <v>192.9860272383712</v>
+        <v>192.9860272383713</v>
       </c>
       <c r="X20" t="n">
-        <v>212.2862854711178</v>
+        <v>212.2862854711179</v>
       </c>
       <c r="Y20" t="n">
         <v>223.6828832673166</v>
@@ -2175,7 +2175,7 @@
         <v>127.1537587444849</v>
       </c>
       <c r="H21" t="n">
-        <v>96.16225684418836</v>
+        <v>96.16225684418919</v>
       </c>
       <c r="I21" t="n">
         <v>57.8013948040433</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>41.3389243442859</v>
+        <v>41.33892434428589</v>
       </c>
       <c r="S21" t="n">
         <v>145.9321186766747</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.79626139493226</v>
+        <v>15.79626139493232</v>
       </c>
       <c r="C22" t="n">
-        <v>1.996256240332741</v>
+        <v>1.996256240332798</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.066003894208112</v>
+        <v>1.066003894208169</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>196.8017054915163</v>
+        <v>41.44924932079246</v>
       </c>
       <c r="T22" t="n">
-        <v>63.89390991316684</v>
+        <v>63.89390991316689</v>
       </c>
       <c r="U22" t="n">
         <v>118.3816384050592</v>
       </c>
       <c r="V22" t="n">
-        <v>92.20439779455785</v>
+        <v>92.20439779455791</v>
       </c>
       <c r="W22" t="n">
-        <v>117.3712838651711</v>
+        <v>117.3712838651712</v>
       </c>
       <c r="X22" t="n">
-        <v>63.01638586097422</v>
+        <v>63.01638586097428</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.89125361704191</v>
+        <v>209.2437097877653</v>
       </c>
     </row>
     <row r="23">
@@ -2321,13 +2321,13 @@
         <v>212.190867477917</v>
       </c>
       <c r="D23" t="n">
-        <v>203.1721715224449</v>
+        <v>203.172171522445</v>
       </c>
       <c r="E23" t="n">
         <v>224.9143090923505</v>
       </c>
       <c r="F23" t="n">
-        <v>244.0861251803276</v>
+        <v>244.0861251803277</v>
       </c>
       <c r="G23" t="n">
         <v>245.4821390772015</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.190456475842707</v>
+        <v>7.19045647584273</v>
       </c>
       <c r="T23" t="n">
-        <v>53.83997381629334</v>
+        <v>53.83997381629337</v>
       </c>
       <c r="U23" t="n">
-        <v>86.36994900049828</v>
+        <v>86.36994900049831</v>
       </c>
       <c r="V23" t="n">
-        <v>167.6859277604143</v>
+        <v>167.6859277604144</v>
       </c>
       <c r="W23" t="n">
-        <v>192.9860272383712</v>
+        <v>192.9860272383713</v>
       </c>
       <c r="X23" t="n">
-        <v>212.2862854711178</v>
+        <v>212.2862854711179</v>
       </c>
       <c r="Y23" t="n">
         <v>223.6828832673166</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>41.3389243442859</v>
+        <v>41.33892434428589</v>
       </c>
       <c r="S24" t="n">
         <v>145.9321186766747</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.79626139493229</v>
+        <v>15.79626139493232</v>
       </c>
       <c r="C25" t="n">
-        <v>1.996256240332769</v>
+        <v>1.996256240332798</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>5.462611640451002</v>
+        <v>1.066003894208169</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>41.44924932079243</v>
+        <v>196.8017054915157</v>
       </c>
       <c r="T25" t="n">
-        <v>63.89390991316687</v>
+        <v>63.89390991316689</v>
       </c>
       <c r="U25" t="n">
         <v>118.3816384050592</v>
       </c>
       <c r="V25" t="n">
-        <v>92.20439779455788</v>
+        <v>92.20439779455791</v>
       </c>
       <c r="W25" t="n">
-        <v>117.3712838651711</v>
+        <v>117.3712838651712</v>
       </c>
       <c r="X25" t="n">
-        <v>63.01638586097425</v>
+        <v>63.01638586097428</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.89125361704194</v>
+        <v>53.89125361704197</v>
       </c>
     </row>
     <row r="26">
@@ -2561,19 +2561,19 @@
         <v>266.5656814796316</v>
       </c>
       <c r="E26" t="n">
-        <v>288.3078190495371</v>
+        <v>288.3078190495372</v>
       </c>
       <c r="F26" t="n">
         <v>307.4796351375143</v>
       </c>
       <c r="G26" t="n">
-        <v>308.8756490343881</v>
+        <v>308.8756490343882</v>
       </c>
       <c r="H26" t="n">
-        <v>221.4608654801275</v>
+        <v>221.4608654801276</v>
       </c>
       <c r="I26" t="n">
-        <v>47.84649830172174</v>
+        <v>47.84649830172175</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>117.23348377348</v>
       </c>
       <c r="U26" t="n">
-        <v>149.7634589576849</v>
+        <v>149.763458957685</v>
       </c>
       <c r="V26" t="n">
         <v>231.079437717601</v>
@@ -2621,7 +2621,7 @@
         <v>275.6797954283045</v>
       </c>
       <c r="Y26" t="n">
-        <v>287.0763932245032</v>
+        <v>287.0763932245033</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>41.3389243442859</v>
+        <v>41.33892434428589</v>
       </c>
       <c r="S27" t="n">
         <v>145.9321186766747</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.18977135211895</v>
+        <v>79.18977135211897</v>
       </c>
       <c r="C28" t="n">
-        <v>65.38976619751944</v>
+        <v>65.38976619751945</v>
       </c>
       <c r="D28" t="n">
-        <v>49.01113059509782</v>
+        <v>49.01113059509784</v>
       </c>
       <c r="E28" t="n">
-        <v>47.95888045087727</v>
+        <v>47.95888045087729</v>
       </c>
       <c r="F28" t="n">
-        <v>48.42580477906358</v>
+        <v>48.4258047790636</v>
       </c>
       <c r="G28" t="n">
-        <v>64.4595138513948</v>
+        <v>64.45951385139482</v>
       </c>
       <c r="H28" t="n">
-        <v>53.10622249820869</v>
+        <v>53.10622249820871</v>
       </c>
       <c r="I28" t="n">
-        <v>32.98363402659524</v>
+        <v>32.98363402659525</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66056912601972</v>
+        <v>34.66056912601975</v>
       </c>
       <c r="S28" t="n">
         <v>104.8427592779791</v>
       </c>
       <c r="T28" t="n">
-        <v>127.2874198703535</v>
+        <v>127.2874198703536</v>
       </c>
       <c r="U28" t="n">
         <v>181.7751483622459</v>
       </c>
       <c r="V28" t="n">
-        <v>155.5979077517445</v>
+        <v>155.5979077517446</v>
       </c>
       <c r="W28" t="n">
         <v>180.7647938223578</v>
@@ -2804,7 +2804,7 @@
         <v>307.4796351375143</v>
       </c>
       <c r="G29" t="n">
-        <v>308.8756490343881</v>
+        <v>308.8756490343882</v>
       </c>
       <c r="H29" t="n">
         <v>221.4608654801275</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.58396643302937</v>
+        <v>70.58396643302936</v>
       </c>
       <c r="T29" t="n">
         <v>117.23348377348</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>41.3389243442859</v>
+        <v>41.33892434428589</v>
       </c>
       <c r="S30" t="n">
         <v>145.9321186766747</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66056912601972</v>
+        <v>34.66056912601974</v>
       </c>
       <c r="S31" t="n">
         <v>104.8427592779791</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>284.983356382702</v>
+        <v>284.9833563827018</v>
       </c>
       <c r="C32" t="n">
-        <v>272.9946733403838</v>
+        <v>272.9946733403835</v>
       </c>
       <c r="D32" t="n">
-        <v>263.9759773849117</v>
+        <v>263.9759773849115</v>
       </c>
       <c r="E32" t="n">
-        <v>285.7181149548172</v>
+        <v>285.7181149548171</v>
       </c>
       <c r="F32" t="n">
-        <v>304.8899310427944</v>
+        <v>304.8899310427942</v>
       </c>
       <c r="G32" t="n">
-        <v>306.2859449396683</v>
+        <v>306.2859449396681</v>
       </c>
       <c r="H32" t="n">
-        <v>218.8711613854076</v>
+        <v>218.8711613854074</v>
       </c>
       <c r="I32" t="n">
-        <v>45.25679420700186</v>
+        <v>45.25679420700168</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.99426233830948</v>
+        <v>67.9942623383093</v>
       </c>
       <c r="T32" t="n">
-        <v>114.6437796787601</v>
+        <v>114.6437796787599</v>
       </c>
       <c r="U32" t="n">
-        <v>147.1737548629651</v>
+        <v>147.1737548629649</v>
       </c>
       <c r="V32" t="n">
-        <v>228.4897336228811</v>
+        <v>228.4897336228809</v>
       </c>
       <c r="W32" t="n">
-        <v>253.789833100838</v>
+        <v>253.7898331008378</v>
       </c>
       <c r="X32" t="n">
-        <v>273.0900913335846</v>
+        <v>273.0900913335844</v>
       </c>
       <c r="Y32" t="n">
-        <v>284.4866891297834</v>
+        <v>284.4866891297832</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>41.3389243442859</v>
+        <v>41.33892434428589</v>
       </c>
       <c r="S33" t="n">
         <v>145.9321186766747</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>76.60006725739908</v>
+        <v>76.60006725739889</v>
       </c>
       <c r="C34" t="n">
-        <v>62.80006210279956</v>
+        <v>62.80006210279937</v>
       </c>
       <c r="D34" t="n">
-        <v>46.42142650037795</v>
+        <v>46.42142650037776</v>
       </c>
       <c r="E34" t="n">
-        <v>45.3691763561574</v>
+        <v>45.36917635615721</v>
       </c>
       <c r="F34" t="n">
-        <v>45.83610068434371</v>
+        <v>45.83610068434352</v>
       </c>
       <c r="G34" t="n">
-        <v>61.86980975667493</v>
+        <v>61.86980975667474</v>
       </c>
       <c r="H34" t="n">
-        <v>50.51651840348881</v>
+        <v>50.51651840348862</v>
       </c>
       <c r="I34" t="n">
-        <v>30.39392993187536</v>
+        <v>30.39392993187517</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>32.07086503129985</v>
+        <v>32.07086503129966</v>
       </c>
       <c r="S34" t="n">
-        <v>102.2530551832592</v>
+        <v>102.253055183259</v>
       </c>
       <c r="T34" t="n">
-        <v>124.6977157756337</v>
+        <v>124.6977157756335</v>
       </c>
       <c r="U34" t="n">
-        <v>179.185444267526</v>
+        <v>179.1854442675258</v>
       </c>
       <c r="V34" t="n">
-        <v>153.0082036570247</v>
+        <v>153.0082036570245</v>
       </c>
       <c r="W34" t="n">
-        <v>178.1750897276379</v>
+        <v>178.1750897276377</v>
       </c>
       <c r="X34" t="n">
-        <v>123.820191723441</v>
+        <v>123.8201917234409</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.6950594795087</v>
+        <v>114.6950594795085</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.3901961984365</v>
+        <v>237.3901961984367</v>
       </c>
       <c r="C35" t="n">
-        <v>225.4015131561183</v>
+        <v>225.4015131561184</v>
       </c>
       <c r="D35" t="n">
-        <v>216.3828172006463</v>
+        <v>216.3828172006464</v>
       </c>
       <c r="E35" t="n">
-        <v>238.1249547705518</v>
+        <v>238.1249547705519</v>
       </c>
       <c r="F35" t="n">
-        <v>257.2967708585289</v>
+        <v>257.296770858529</v>
       </c>
       <c r="G35" t="n">
-        <v>258.6927847554028</v>
+        <v>258.692784755403</v>
       </c>
       <c r="H35" t="n">
-        <v>171.2780012011422</v>
+        <v>171.2780012011423</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.40110215404403</v>
+        <v>20.40110215404414</v>
       </c>
       <c r="T35" t="n">
-        <v>67.05061949449467</v>
+        <v>67.05061949449478</v>
       </c>
       <c r="U35" t="n">
-        <v>99.58059467869961</v>
+        <v>99.58059467869973</v>
       </c>
       <c r="V35" t="n">
-        <v>180.8965734386157</v>
+        <v>180.8965734386158</v>
       </c>
       <c r="W35" t="n">
-        <v>206.1966729165726</v>
+        <v>206.1966729165727</v>
       </c>
       <c r="X35" t="n">
-        <v>225.4969311493192</v>
+        <v>225.4969311493193</v>
       </c>
       <c r="Y35" t="n">
-        <v>236.8935289455179</v>
+        <v>236.8935289455181</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>41.3389243442859</v>
+        <v>41.33892434428589</v>
       </c>
       <c r="S36" t="n">
         <v>145.9321186766747</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.00690707313362</v>
+        <v>29.00690707313373</v>
       </c>
       <c r="C37" t="n">
-        <v>15.2069019185341</v>
+        <v>15.20690191853421</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>14.27664957240947</v>
+        <v>14.27664957240959</v>
       </c>
       <c r="H37" t="n">
-        <v>2.92335821922335</v>
+        <v>2.923358219223462</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>54.65989499899376</v>
+        <v>74.98253616847961</v>
       </c>
       <c r="T37" t="n">
-        <v>77.1045555913682</v>
+        <v>77.10455559136831</v>
       </c>
       <c r="U37" t="n">
-        <v>131.5922840832605</v>
+        <v>131.5922840832606</v>
       </c>
       <c r="V37" t="n">
-        <v>105.4150434727592</v>
+        <v>105.4150434727593</v>
       </c>
       <c r="W37" t="n">
-        <v>130.5819295433725</v>
+        <v>130.5819295433726</v>
       </c>
       <c r="X37" t="n">
-        <v>76.22703153917558</v>
+        <v>76.2270315391757</v>
       </c>
       <c r="Y37" t="n">
-        <v>87.4245404647303</v>
+        <v>67.10189929524338</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>237.3901961984366</v>
+        <v>237.3901961984367</v>
       </c>
       <c r="C38" t="n">
         <v>225.4015131561184</v>
       </c>
       <c r="D38" t="n">
-        <v>216.3828172006463</v>
+        <v>216.3828172006464</v>
       </c>
       <c r="E38" t="n">
         <v>238.1249547705519</v>
@@ -3515,7 +3515,7 @@
         <v>257.296770858529</v>
       </c>
       <c r="G38" t="n">
-        <v>258.6927847554029</v>
+        <v>258.692784755403</v>
       </c>
       <c r="H38" t="n">
         <v>171.2780012011423</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.40110215404411</v>
+        <v>20.40110215404414</v>
       </c>
       <c r="T38" t="n">
-        <v>67.05061949449475</v>
+        <v>67.05061949449478</v>
       </c>
       <c r="U38" t="n">
-        <v>99.5805946786997</v>
+        <v>99.58059467869973</v>
       </c>
       <c r="V38" t="n">
-        <v>180.8965734386157</v>
+        <v>180.8965734386158</v>
       </c>
       <c r="W38" t="n">
         <v>206.1966729165727</v>
@@ -3569,7 +3569,7 @@
         <v>225.4969311493193</v>
       </c>
       <c r="Y38" t="n">
-        <v>236.893528945518</v>
+        <v>236.8935289455181</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>41.3389243442859</v>
+        <v>41.33892434428589</v>
       </c>
       <c r="S39" t="n">
         <v>145.9321186766747</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.0069070731337</v>
+        <v>49.32954824261942</v>
       </c>
       <c r="C40" t="n">
-        <v>15.20690191853419</v>
+        <v>15.20690191853421</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>14.27664957240956</v>
+        <v>14.27664957240959</v>
       </c>
       <c r="H40" t="n">
-        <v>2.923358219223435</v>
+        <v>2.923358219223462</v>
       </c>
       <c r="I40" t="n">
-        <v>20.322641169486</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>54.65989499899385</v>
+        <v>54.65989499899388</v>
       </c>
       <c r="T40" t="n">
-        <v>77.10455559136828</v>
+        <v>77.10455559136831</v>
       </c>
       <c r="U40" t="n">
         <v>131.5922840832606</v>
@@ -3724,10 +3724,10 @@
         <v>130.5819295433726</v>
       </c>
       <c r="X40" t="n">
-        <v>76.22703153917567</v>
+        <v>76.2270315391757</v>
       </c>
       <c r="Y40" t="n">
-        <v>67.10189929524336</v>
+        <v>67.10189929524338</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>237.3901961984366</v>
+        <v>237.3901961984365</v>
       </c>
       <c r="C41" t="n">
-        <v>225.4015131561184</v>
+        <v>225.4015131561183</v>
       </c>
       <c r="D41" t="n">
         <v>216.3828172006463</v>
       </c>
       <c r="E41" t="n">
-        <v>238.1249547705519</v>
+        <v>238.1249547705518</v>
       </c>
       <c r="F41" t="n">
-        <v>257.296770858529</v>
+        <v>257.2967708585289</v>
       </c>
       <c r="G41" t="n">
-        <v>258.6927847554029</v>
+        <v>258.6927847554028</v>
       </c>
       <c r="H41" t="n">
-        <v>171.2780012011423</v>
+        <v>171.2780012011422</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>20.40110215404412</v>
+        <v>20.40110215404403</v>
       </c>
       <c r="T41" t="n">
-        <v>67.05061949449475</v>
+        <v>67.05061949449467</v>
       </c>
       <c r="U41" t="n">
-        <v>99.5805946786997</v>
+        <v>99.58059467869961</v>
       </c>
       <c r="V41" t="n">
         <v>180.8965734386157</v>
       </c>
       <c r="W41" t="n">
-        <v>206.1966729165727</v>
+        <v>206.1966729165726</v>
       </c>
       <c r="X41" t="n">
-        <v>225.4969311493193</v>
+        <v>225.4969311493192</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.893528945518</v>
+        <v>236.8935289455179</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>41.3389243442859</v>
+        <v>41.33892434428589</v>
       </c>
       <c r="S42" t="n">
         <v>145.9321186766747</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.0069070731337</v>
+        <v>29.00690707313362</v>
       </c>
       <c r="C43" t="n">
-        <v>15.20690191853419</v>
+        <v>15.2069019185341</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>14.27664957240956</v>
+        <v>14.27664957240947</v>
       </c>
       <c r="H43" t="n">
-        <v>2.923358219223435</v>
+        <v>2.923358219223349</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>74.98253616847984</v>
+        <v>54.65989499899376</v>
       </c>
       <c r="T43" t="n">
-        <v>77.10455559136828</v>
+        <v>97.42719676085521</v>
       </c>
       <c r="U43" t="n">
-        <v>131.5922840832606</v>
+        <v>131.5922840832605</v>
       </c>
       <c r="V43" t="n">
-        <v>105.4150434727593</v>
+        <v>105.4150434727592</v>
       </c>
       <c r="W43" t="n">
-        <v>130.5819295433726</v>
+        <v>130.5819295433725</v>
       </c>
       <c r="X43" t="n">
-        <v>76.22703153917567</v>
+        <v>76.22703153917558</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.10189929524336</v>
+        <v>67.10189929524327</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>20.40110215404411</v>
+        <v>20.40110215404412</v>
       </c>
       <c r="T44" t="n">
         <v>67.05061949449475</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>41.3389243442859</v>
+        <v>41.33892434428589</v>
       </c>
       <c r="S45" t="n">
         <v>145.9321186766747</v>
@@ -4150,7 +4150,7 @@
         <v>14.27664957240956</v>
       </c>
       <c r="H46" t="n">
-        <v>2.923358219223435</v>
+        <v>2.923358219223434</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>54.65989499899385</v>
       </c>
       <c r="T46" t="n">
-        <v>97.42719676085432</v>
+        <v>77.10455559136828</v>
       </c>
       <c r="U46" t="n">
         <v>131.5922840832606</v>
@@ -4198,7 +4198,7 @@
         <v>130.5819295433726</v>
       </c>
       <c r="X46" t="n">
-        <v>76.22703153917567</v>
+        <v>96.54967270866166</v>
       </c>
       <c r="Y46" t="n">
         <v>67.10189929524336</v>
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="C8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="D8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="E8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="F8" t="n">
-        <v>10.91156095206012</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8007743026345088</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8007743026345088</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="I8" t="n">
         <v>0.8007743026345088</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8007743026345088</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8007743026345088</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8007743026345088</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="N8" t="n">
-        <v>10.3099691464193</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="O8" t="n">
-        <v>20.21955114152135</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="P8" t="n">
         <v>30.12913313662339</v>
@@ -4826,28 +4826,28 @@
         <v>40.03871513172544</v>
       </c>
       <c r="R8" t="n">
-        <v>31.13313425091136</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="S8" t="n">
-        <v>21.02234760148574</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="T8" t="n">
-        <v>21.02234760148574</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="U8" t="n">
-        <v>21.02234760148574</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="V8" t="n">
-        <v>21.02234760148574</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="W8" t="n">
-        <v>21.02234760148574</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="X8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.70635518344859</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="C9" t="n">
-        <v>9.70635518344859</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="D9" t="n">
-        <v>9.70635518344859</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="E9" t="n">
-        <v>9.70635518344859</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F9" t="n">
         <v>0.8007743026345088</v>
@@ -4881,10 +4881,10 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="L9" t="n">
         <v>10.71035629773655</v>
@@ -4908,25 +4908,25 @@
         <v>29.92792848229982</v>
       </c>
       <c r="S9" t="n">
-        <v>19.81714183287421</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="T9" t="n">
-        <v>19.81714183287421</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="U9" t="n">
-        <v>19.81714183287421</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="V9" t="n">
-        <v>19.81714183287421</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="W9" t="n">
-        <v>19.81714183287421</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="X9" t="n">
-        <v>9.70635518344859</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.70635518344859</v>
+        <v>0.8007743026345088</v>
       </c>
     </row>
     <row r="10">
@@ -4936,46 +4936,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29.92792848229982</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="C10" t="n">
-        <v>29.92792848229982</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="D10" t="n">
-        <v>29.92792848229982</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="E10" t="n">
-        <v>29.92792848229982</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F10" t="n">
-        <v>29.92792848229982</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="G10" t="n">
-        <v>29.92792848229982</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H10" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="J10" t="n">
         <v>0.8007743026345088</v>
       </c>
       <c r="K10" t="n">
+        <v>0.8007743026345088</v>
+      </c>
+      <c r="L10" t="n">
         <v>10.71035629773655</v>
       </c>
-      <c r="L10" t="n">
-        <v>20.6199382928386</v>
-      </c>
       <c r="M10" t="n">
-        <v>30.52952028794065</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="N10" t="n">
-        <v>40.03871513172544</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="O10" t="n">
-        <v>40.03871513172544</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="P10" t="n">
         <v>40.03871513172544</v>
@@ -4984,28 +4984,28 @@
         <v>29.92792848229982</v>
       </c>
       <c r="R10" t="n">
-        <v>29.92792848229982</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="S10" t="n">
-        <v>29.92792848229982</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="T10" t="n">
-        <v>29.92792848229982</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="U10" t="n">
-        <v>29.92792848229982</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="V10" t="n">
-        <v>29.92792848229982</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="W10" t="n">
-        <v>29.92792848229982</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="X10" t="n">
-        <v>29.92792848229982</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="Y10" t="n">
-        <v>29.92792848229982</v>
+        <v>9.70635518344859</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1399.005288360094</v>
+        <v>1030.958138915984</v>
       </c>
       <c r="C11" t="n">
-        <v>1285.071785164974</v>
+        <v>738.4754235736038</v>
       </c>
       <c r="D11" t="n">
-        <v>1001.69886371701</v>
+        <v>455.1025021256404</v>
       </c>
       <c r="E11" t="n">
-        <v>1001.69886371701</v>
+        <v>455.1025021256404</v>
       </c>
       <c r="F11" t="n">
-        <v>676.9987163519934</v>
+        <v>455.1025021256404</v>
       </c>
       <c r="G11" t="n">
-        <v>350.8884539396292</v>
+        <v>128.9922397132761</v>
       </c>
       <c r="H11" t="n">
-        <v>113.0759526931849</v>
+        <v>113.0759526931854</v>
       </c>
       <c r="I11" t="n">
         <v>50.63149910169599</v>
@@ -5045,16 +5045,16 @@
         <v>475.5705058676343</v>
       </c>
       <c r="L11" t="n">
-        <v>907.3907625372511</v>
+        <v>907.3907625372512</v>
       </c>
       <c r="M11" t="n">
-        <v>1207.206447688016</v>
+        <v>1394.023659298945</v>
       </c>
       <c r="N11" t="n">
-        <v>1680.442745084106</v>
+        <v>1867.259956695035</v>
       </c>
       <c r="O11" t="n">
-        <v>2075.063371992038</v>
+        <v>2261.880583602966</v>
       </c>
       <c r="P11" t="n">
         <v>2379.705487326029</v>
@@ -5069,22 +5069,22 @@
         <v>2446.163361966737</v>
       </c>
       <c r="T11" t="n">
-        <v>2446.163361966737</v>
+        <v>2313.631044262361</v>
       </c>
       <c r="U11" t="n">
-        <v>2280.772483470235</v>
+        <v>2148.240165765859</v>
       </c>
       <c r="V11" t="n">
-        <v>2280.772483470235</v>
+        <v>1900.711934986613</v>
       </c>
       <c r="W11" t="n">
-        <v>2007.688596652649</v>
+        <v>1627.628048169027</v>
       </c>
       <c r="X11" t="n">
-        <v>2007.688596652649</v>
+        <v>1335.048951015333</v>
       </c>
       <c r="Y11" t="n">
-        <v>1703.5977845533</v>
+        <v>1030.958138915984</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>916.8525970584473</v>
+        <v>916.8525970584476</v>
       </c>
       <c r="C12" t="n">
-        <v>755.1489242994021</v>
+        <v>755.1489242994023</v>
       </c>
       <c r="D12" t="n">
-        <v>616.3102872896141</v>
+        <v>616.3102872896144</v>
       </c>
       <c r="E12" t="n">
-        <v>469.2822773464852</v>
+        <v>469.2822773464856</v>
       </c>
       <c r="F12" t="n">
-        <v>334.5884792963597</v>
+        <v>334.58847929636</v>
       </c>
       <c r="G12" t="n">
-        <v>206.1503391504153</v>
+        <v>206.1503391504157</v>
       </c>
       <c r="H12" t="n">
-        <v>109.0167463785078</v>
+        <v>109.0167463785082</v>
       </c>
       <c r="I12" t="n">
         <v>50.63149910169599</v>
@@ -5121,13 +5121,13 @@
         <v>137.7723726368144</v>
       </c>
       <c r="K12" t="n">
-        <v>413.2166240983116</v>
+        <v>137.7723726368144</v>
       </c>
       <c r="L12" t="n">
-        <v>840.8288884799131</v>
+        <v>565.384637018416</v>
       </c>
       <c r="M12" t="n">
-        <v>1397.968746744155</v>
+        <v>935.8484231522286</v>
       </c>
       <c r="N12" t="n">
         <v>1521.129018650604</v>
@@ -5145,7 +5145,7 @@
         <v>2489.818465848147</v>
       </c>
       <c r="S12" t="n">
-        <v>2342.412285366657</v>
+        <v>2342.412285366658</v>
       </c>
       <c r="T12" t="n">
         <v>2154.897535411935</v>
@@ -5160,7 +5160,7 @@
         <v>1466.710354312335</v>
       </c>
       <c r="X12" t="n">
-        <v>1268.793366190129</v>
+        <v>1268.79336619013</v>
       </c>
       <c r="Y12" t="n">
         <v>1076.272039839708</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>514.4189007943456</v>
+        <v>227.0395116018493</v>
       </c>
       <c r="C13" t="n">
-        <v>434.2539745808388</v>
+        <v>146.8745853883424</v>
       </c>
       <c r="D13" t="n">
-        <v>370.6331247334144</v>
+        <v>83.25373554091792</v>
       </c>
       <c r="E13" t="n">
-        <v>308.0751538195462</v>
+        <v>83.25373554091792</v>
       </c>
       <c r="F13" t="n">
-        <v>245.0455421701362</v>
+        <v>50.63149910169599</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8202647910987</v>
+        <v>50.63149910169599</v>
       </c>
       <c r="H13" t="n">
-        <v>98.06295847588544</v>
+        <v>50.63149910169599</v>
       </c>
       <c r="I13" t="n">
         <v>50.63149910169599</v>
       </c>
       <c r="J13" t="n">
-        <v>96.30823560199553</v>
+        <v>96.30823560199548</v>
       </c>
       <c r="K13" t="n">
-        <v>245.3024804191788</v>
+        <v>245.3024804191786</v>
       </c>
       <c r="L13" t="n">
-        <v>469.0514186062466</v>
+        <v>469.0514186062463</v>
       </c>
       <c r="M13" t="n">
-        <v>712.1149737064384</v>
+        <v>712.114973706438</v>
       </c>
       <c r="N13" t="n">
-        <v>954.7180978637576</v>
+        <v>954.7180978637572</v>
       </c>
       <c r="O13" t="n">
-        <v>1174.575435216289</v>
+        <v>1174.575435216288</v>
       </c>
       <c r="P13" t="n">
         <v>1354.070502065729</v>
       </c>
       <c r="Q13" t="n">
-        <v>1423.949153884687</v>
+        <v>1423.949153884686</v>
       </c>
       <c r="R13" t="n">
-        <v>1374.823820672695</v>
+        <v>1423.949153884686</v>
       </c>
       <c r="S13" t="n">
-        <v>1300.50242518424</v>
+        <v>1303.932719509099</v>
       </c>
       <c r="T13" t="n">
-        <v>1157.814616472921</v>
+        <v>1161.24491079778</v>
       </c>
       <c r="U13" t="n">
-        <v>960.0886981738317</v>
+        <v>963.5189924986905</v>
       </c>
       <c r="V13" t="n">
-        <v>788.804437057067</v>
+        <v>792.2347313819259</v>
       </c>
       <c r="W13" t="n">
-        <v>788.804437057067</v>
+        <v>595.5293732241379</v>
       </c>
       <c r="X13" t="n">
-        <v>647.0030162772557</v>
+        <v>453.7279524443265</v>
       </c>
       <c r="Y13" t="n">
-        <v>514.4189007943456</v>
+        <v>321.1438369614164</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1307.033540286091</v>
+        <v>726.3656427227781</v>
       </c>
       <c r="C14" t="n">
-        <v>1307.033540286091</v>
+        <v>433.8829273803983</v>
       </c>
       <c r="D14" t="n">
-        <v>1307.033540286091</v>
+        <v>418.4106292622653</v>
       </c>
       <c r="E14" t="n">
-        <v>1001.69886371701</v>
+        <v>113.0759526931849</v>
       </c>
       <c r="F14" t="n">
-        <v>676.9987163519934</v>
+        <v>113.0759526931849</v>
       </c>
       <c r="G14" t="n">
-        <v>350.8884539396292</v>
+        <v>113.0759526931849</v>
       </c>
       <c r="H14" t="n">
         <v>113.0759526931849</v>
@@ -5276,19 +5276,19 @@
         <v>50.63149910169599</v>
       </c>
       <c r="J14" t="n">
-        <v>50.63149910169599</v>
+        <v>167.7728174862798</v>
       </c>
       <c r="K14" t="n">
-        <v>288.753294256706</v>
+        <v>475.5705058676343</v>
       </c>
       <c r="L14" t="n">
-        <v>720.5735509263228</v>
+        <v>907.3907625372512</v>
       </c>
       <c r="M14" t="n">
-        <v>1207.206447688016</v>
+        <v>1394.023659298945</v>
       </c>
       <c r="N14" t="n">
-        <v>1680.442745084106</v>
+        <v>1867.259956695035</v>
       </c>
       <c r="O14" t="n">
         <v>2075.063371992038</v>
@@ -5306,22 +5306,22 @@
         <v>2446.163361966737</v>
       </c>
       <c r="T14" t="n">
-        <v>2446.163361966737</v>
+        <v>2313.631044262361</v>
       </c>
       <c r="U14" t="n">
-        <v>2280.772483470235</v>
+        <v>2148.240165765859</v>
       </c>
       <c r="V14" t="n">
-        <v>2033.244252690989</v>
+        <v>1900.711934986613</v>
       </c>
       <c r="W14" t="n">
-        <v>1760.160365873403</v>
+        <v>1627.628048169027</v>
       </c>
       <c r="X14" t="n">
-        <v>1611.626036479297</v>
+        <v>1335.048951015333</v>
       </c>
       <c r="Y14" t="n">
-        <v>1611.626036479297</v>
+        <v>1030.958138915984</v>
       </c>
     </row>
     <row r="15">
@@ -5346,10 +5346,10 @@
         <v>334.5884792963597</v>
       </c>
       <c r="G15" t="n">
-        <v>206.1503391504153</v>
+        <v>206.1503391504149</v>
       </c>
       <c r="H15" t="n">
-        <v>109.0167463785078</v>
+        <v>109.0167463785074</v>
       </c>
       <c r="I15" t="n">
         <v>50.63149910169599</v>
@@ -5364,13 +5364,13 @@
         <v>753.6880149447948</v>
       </c>
       <c r="M15" t="n">
-        <v>935.8484231522286</v>
+        <v>1292.286959772228</v>
       </c>
       <c r="N15" t="n">
-        <v>1521.129018650604</v>
+        <v>1877.567555270603</v>
       </c>
       <c r="O15" t="n">
-        <v>1981.038188119039</v>
+        <v>2337.476724739038</v>
       </c>
       <c r="P15" t="n">
         <v>2337.476724739038</v>
@@ -5382,7 +5382,7 @@
         <v>2489.818465848147</v>
       </c>
       <c r="S15" t="n">
-        <v>2342.412285366657</v>
+        <v>2342.412285366658</v>
       </c>
       <c r="T15" t="n">
         <v>2154.897535411935</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>307.5972378276118</v>
+        <v>194.4172751626272</v>
       </c>
       <c r="C16" t="n">
-        <v>307.5972378276118</v>
+        <v>114.2523489491204</v>
       </c>
       <c r="D16" t="n">
-        <v>243.9763879801874</v>
+        <v>50.63149910169599</v>
       </c>
       <c r="E16" t="n">
-        <v>181.4184170663191</v>
+        <v>50.63149910169599</v>
       </c>
       <c r="F16" t="n">
-        <v>118.3888054169091</v>
+        <v>50.63149910169599</v>
       </c>
       <c r="G16" t="n">
-        <v>118.3888054169091</v>
+        <v>50.63149910169599</v>
       </c>
       <c r="H16" t="n">
         <v>50.63149910169599</v>
@@ -5434,52 +5434,52 @@
         <v>50.63149910169599</v>
       </c>
       <c r="J16" t="n">
-        <v>96.30823560199519</v>
+        <v>96.30823560199556</v>
       </c>
       <c r="K16" t="n">
-        <v>245.3024804191785</v>
+        <v>245.3024804191788</v>
       </c>
       <c r="L16" t="n">
-        <v>469.0514186062462</v>
+        <v>469.0514186062466</v>
       </c>
       <c r="M16" t="n">
-        <v>712.114973706438</v>
+        <v>712.1149737064384</v>
       </c>
       <c r="N16" t="n">
-        <v>954.7180978637573</v>
+        <v>954.7180978637576</v>
       </c>
       <c r="O16" t="n">
-        <v>1174.575435216288</v>
+        <v>1174.575435216289</v>
       </c>
       <c r="P16" t="n">
         <v>1354.070502065729</v>
       </c>
       <c r="Q16" t="n">
-        <v>1423.949153884686</v>
+        <v>1423.949153884687</v>
       </c>
       <c r="R16" t="n">
-        <v>1374.823820672694</v>
+        <v>1374.823820672695</v>
       </c>
       <c r="S16" t="n">
         <v>1254.807386297108</v>
       </c>
       <c r="T16" t="n">
-        <v>1112.119577585788</v>
+        <v>1112.119577585789</v>
       </c>
       <c r="U16" t="n">
-        <v>914.3936592866997</v>
+        <v>914.3936592866994</v>
       </c>
       <c r="V16" t="n">
-        <v>743.1093981699353</v>
+        <v>743.1093981699348</v>
       </c>
       <c r="W16" t="n">
-        <v>546.4040400121472</v>
+        <v>546.4040400121469</v>
       </c>
       <c r="X16" t="n">
-        <v>404.602619232336</v>
+        <v>404.6026192323357</v>
       </c>
       <c r="Y16" t="n">
-        <v>401.7015631871787</v>
+        <v>288.5216005221941</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1351.553688872588</v>
+        <v>1351.553688872587</v>
       </c>
       <c r="C17" t="n">
-        <v>1137.219479298935</v>
+        <v>1137.219479298934</v>
       </c>
       <c r="D17" t="n">
-        <v>931.9950636196975</v>
+        <v>931.9950636196965</v>
       </c>
       <c r="E17" t="n">
-        <v>704.8088928193423</v>
+        <v>704.8088928193424</v>
       </c>
       <c r="F17" t="n">
-        <v>458.2572512230518</v>
+        <v>458.2572512230519</v>
       </c>
       <c r="G17" t="n">
-        <v>210.295494579414</v>
+        <v>210.2954945794141</v>
       </c>
       <c r="H17" t="n">
         <v>50.63149910169599</v>
@@ -5516,19 +5516,19 @@
         <v>167.7728174862798</v>
       </c>
       <c r="K17" t="n">
-        <v>288.753294256706</v>
+        <v>475.5705058676343</v>
       </c>
       <c r="L17" t="n">
-        <v>720.5735509263228</v>
+        <v>907.3907625372512</v>
       </c>
       <c r="M17" t="n">
-        <v>1207.206447688016</v>
+        <v>1394.023659298945</v>
       </c>
       <c r="N17" t="n">
-        <v>1680.442745084106</v>
+        <v>1867.259956695035</v>
       </c>
       <c r="O17" t="n">
-        <v>2075.063371992038</v>
+        <v>2261.880583602966</v>
       </c>
       <c r="P17" t="n">
         <v>2379.705487326029</v>
@@ -5540,7 +5540,7 @@
         <v>2531.5749550848</v>
       </c>
       <c r="S17" t="n">
-        <v>2524.311867735464</v>
+        <v>2524.311867735463</v>
       </c>
       <c r="T17" t="n">
         <v>2469.928055799814</v>
@@ -5549,16 +5549,16 @@
         <v>2382.685683072038</v>
       </c>
       <c r="V17" t="n">
-        <v>2213.305958061519</v>
+        <v>2213.305958061518</v>
       </c>
       <c r="W17" t="n">
-        <v>2018.370577012659</v>
+        <v>2018.370577012658</v>
       </c>
       <c r="X17" t="n">
-        <v>1803.939985627691</v>
+        <v>1803.93998562769</v>
       </c>
       <c r="Y17" t="n">
-        <v>1577.997679297068</v>
+        <v>1577.997679297067</v>
       </c>
     </row>
     <row r="18">
@@ -5592,19 +5592,19 @@
         <v>50.63149910169599</v>
       </c>
       <c r="J18" t="n">
-        <v>50.63149910169599</v>
+        <v>137.7723726368144</v>
       </c>
       <c r="K18" t="n">
-        <v>326.0757505631932</v>
+        <v>413.2166240983116</v>
       </c>
       <c r="L18" t="n">
-        <v>753.6880149447948</v>
+        <v>840.8288884799132</v>
       </c>
       <c r="M18" t="n">
-        <v>1310.827873209037</v>
+        <v>1397.968746744155</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.108468707412</v>
+        <v>1981.038188119038</v>
       </c>
       <c r="O18" t="n">
         <v>1981.038188119038</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.72469115678777</v>
+        <v>53.72469115678788</v>
       </c>
       <c r="C19" t="n">
-        <v>51.70827071200722</v>
+        <v>51.70827071200728</v>
       </c>
       <c r="D19" t="n">
-        <v>51.70827071200722</v>
+        <v>51.70827071200728</v>
       </c>
       <c r="E19" t="n">
-        <v>51.70827071200722</v>
+        <v>51.70827071200728</v>
       </c>
       <c r="F19" t="n">
-        <v>51.70827071200722</v>
+        <v>51.70827071200728</v>
       </c>
       <c r="G19" t="n">
         <v>50.63149910169599</v>
@@ -5692,31 +5692,31 @@
         <v>782.3679601895349</v>
       </c>
       <c r="Q19" t="n">
-        <v>782.3679601895349</v>
+        <v>764.2143883665666</v>
       </c>
       <c r="R19" t="n">
-        <v>782.3679601895349</v>
+        <v>764.2143883665666</v>
       </c>
       <c r="S19" t="n">
-        <v>740.5000315826738</v>
+        <v>722.3464597597056</v>
       </c>
       <c r="T19" t="n">
-        <v>519.03905574036</v>
+        <v>519.0390557403605</v>
       </c>
       <c r="U19" t="n">
-        <v>399.4616432099972</v>
+        <v>399.4616432099976</v>
       </c>
       <c r="V19" t="n">
-        <v>306.325887861959</v>
+        <v>306.3258878619594</v>
       </c>
       <c r="W19" t="n">
-        <v>187.7690354728973</v>
+        <v>187.7690354728975</v>
       </c>
       <c r="X19" t="n">
-        <v>124.1161204618122</v>
+        <v>124.1161204618124</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.68051074762843</v>
+        <v>69.6805107476286</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1351.553688872588</v>
+        <v>1351.553688872587</v>
       </c>
       <c r="C20" t="n">
-        <v>1137.219479298935</v>
+        <v>1137.219479298934</v>
       </c>
       <c r="D20" t="n">
-        <v>931.9950636196976</v>
+        <v>931.9950636196968</v>
       </c>
       <c r="E20" t="n">
-        <v>704.8088928193436</v>
+        <v>704.8088928193426</v>
       </c>
       <c r="F20" t="n">
-        <v>458.2572512230531</v>
+        <v>458.2572512230519</v>
       </c>
       <c r="G20" t="n">
-        <v>210.295494579414</v>
+        <v>210.2954945794141</v>
       </c>
       <c r="H20" t="n">
         <v>50.63149910169599</v>
@@ -5750,13 +5750,13 @@
         <v>50.63149910169599</v>
       </c>
       <c r="J20" t="n">
-        <v>50.63149910169599</v>
+        <v>167.7728174862798</v>
       </c>
       <c r="K20" t="n">
-        <v>358.4291874830504</v>
+        <v>288.7532942567058</v>
       </c>
       <c r="L20" t="n">
-        <v>790.2494441526673</v>
+        <v>720.5735509263227</v>
       </c>
       <c r="M20" t="n">
         <v>1207.206447688016</v>
@@ -5777,7 +5777,7 @@
         <v>2531.5749550848</v>
       </c>
       <c r="S20" t="n">
-        <v>2524.311867735464</v>
+        <v>2524.311867735463</v>
       </c>
       <c r="T20" t="n">
         <v>2469.928055799814</v>
@@ -5786,16 +5786,16 @@
         <v>2382.685683072038</v>
       </c>
       <c r="V20" t="n">
-        <v>2213.305958061519</v>
+        <v>2213.305958061518</v>
       </c>
       <c r="W20" t="n">
-        <v>2018.370577012659</v>
+        <v>2018.370577012658</v>
       </c>
       <c r="X20" t="n">
-        <v>1803.939985627691</v>
+        <v>1803.93998562769</v>
       </c>
       <c r="Y20" t="n">
-        <v>1577.997679297068</v>
+        <v>1577.997679297067</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>916.8525970584468</v>
+        <v>916.8525970584476</v>
       </c>
       <c r="C21" t="n">
-        <v>755.1489242994015</v>
+        <v>755.1489242994023</v>
       </c>
       <c r="D21" t="n">
-        <v>616.3102872896136</v>
+        <v>616.3102872896144</v>
       </c>
       <c r="E21" t="n">
-        <v>469.2822773464849</v>
+        <v>469.2822773464856</v>
       </c>
       <c r="F21" t="n">
-        <v>334.5884792963592</v>
+        <v>334.58847929636</v>
       </c>
       <c r="G21" t="n">
-        <v>206.1503391504149</v>
+        <v>206.1503391504157</v>
       </c>
       <c r="H21" t="n">
         <v>109.0167463785074</v>
@@ -5835,43 +5835,43 @@
         <v>413.2166240983116</v>
       </c>
       <c r="L21" t="n">
-        <v>840.8288884799131</v>
+        <v>413.2166240983116</v>
       </c>
       <c r="M21" t="n">
-        <v>1397.968746744155</v>
+        <v>935.8484231522286</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.227248996364</v>
+        <v>1521.129018650604</v>
       </c>
       <c r="O21" t="n">
-        <v>2175.136418464799</v>
+        <v>1981.038188119039</v>
       </c>
       <c r="P21" t="n">
-        <v>2531.574955084799</v>
+        <v>2337.476724739038</v>
       </c>
       <c r="Q21" t="n">
-        <v>2531.574955084799</v>
+        <v>2531.5749550848</v>
       </c>
       <c r="R21" t="n">
-        <v>2489.818465848146</v>
+        <v>2489.818465848147</v>
       </c>
       <c r="S21" t="n">
-        <v>2342.412285366657</v>
+        <v>2342.412285366658</v>
       </c>
       <c r="T21" t="n">
-        <v>2154.897535411934</v>
+        <v>2154.897535411935</v>
       </c>
       <c r="U21" t="n">
-        <v>1936.42184563069</v>
+        <v>1936.421845630691</v>
       </c>
       <c r="V21" t="n">
-        <v>1708.026223079024</v>
+        <v>1708.026223079025</v>
       </c>
       <c r="W21" t="n">
-        <v>1466.710354312334</v>
+        <v>1466.710354312335</v>
       </c>
       <c r="X21" t="n">
-        <v>1268.793366190129</v>
+        <v>1268.79336619013</v>
       </c>
       <c r="Y21" t="n">
         <v>1076.272039839708</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.72469115678777</v>
+        <v>53.72469115678788</v>
       </c>
       <c r="C22" t="n">
-        <v>51.70827071200722</v>
+        <v>51.70827071200728</v>
       </c>
       <c r="D22" t="n">
-        <v>51.70827071200722</v>
+        <v>51.70827071200728</v>
       </c>
       <c r="E22" t="n">
-        <v>51.70827071200722</v>
+        <v>51.70827071200728</v>
       </c>
       <c r="F22" t="n">
-        <v>51.70827071200722</v>
+        <v>51.70827071200728</v>
       </c>
       <c r="G22" t="n">
         <v>50.63149910169599</v>
@@ -5935,25 +5935,25 @@
         <v>782.3679601895349</v>
       </c>
       <c r="S22" t="n">
-        <v>583.5783586829527</v>
+        <v>740.5000315826738</v>
       </c>
       <c r="T22" t="n">
-        <v>519.03905574036</v>
+        <v>675.960728640081</v>
       </c>
       <c r="U22" t="n">
-        <v>399.4616432099972</v>
+        <v>556.3833161097182</v>
       </c>
       <c r="V22" t="n">
-        <v>306.325887861959</v>
+        <v>463.2475607616799</v>
       </c>
       <c r="W22" t="n">
-        <v>187.7690354728973</v>
+        <v>344.6907083726181</v>
       </c>
       <c r="X22" t="n">
-        <v>124.1161204618122</v>
+        <v>281.037793361533</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.68051074762843</v>
+        <v>69.6805107476286</v>
       </c>
     </row>
     <row r="23">
@@ -5966,46 +5966,46 @@
         <v>1351.553688872588</v>
       </c>
       <c r="C23" t="n">
-        <v>1137.219479298935</v>
+        <v>1137.219479298934</v>
       </c>
       <c r="D23" t="n">
-        <v>931.9950636196976</v>
+        <v>931.9950636196968</v>
       </c>
       <c r="E23" t="n">
-        <v>704.8088928193436</v>
+        <v>704.8088928193428</v>
       </c>
       <c r="F23" t="n">
-        <v>458.2572512230531</v>
+        <v>458.2572512230522</v>
       </c>
       <c r="G23" t="n">
         <v>210.2954945794141</v>
       </c>
       <c r="H23" t="n">
-        <v>50.631499101696</v>
+        <v>50.63149910169599</v>
       </c>
       <c r="I23" t="n">
-        <v>50.631499101696</v>
+        <v>50.63149910169599</v>
       </c>
       <c r="J23" t="n">
-        <v>50.631499101696</v>
+        <v>167.7728174862798</v>
       </c>
       <c r="K23" t="n">
-        <v>358.4291874830505</v>
+        <v>475.5705058676343</v>
       </c>
       <c r="L23" t="n">
-        <v>790.2494441526674</v>
+        <v>907.3907625372512</v>
       </c>
       <c r="M23" t="n">
-        <v>1276.882340914361</v>
+        <v>1207.206447688016</v>
       </c>
       <c r="N23" t="n">
-        <v>1750.118638310451</v>
+        <v>1680.442745084106</v>
       </c>
       <c r="O23" t="n">
-        <v>2144.739265218383</v>
+        <v>2075.063371992038</v>
       </c>
       <c r="P23" t="n">
-        <v>2449.381380552373</v>
+        <v>2379.705487326029</v>
       </c>
       <c r="Q23" t="n">
         <v>2531.5749550848</v>
@@ -6014,7 +6014,7 @@
         <v>2531.5749550848</v>
       </c>
       <c r="S23" t="n">
-        <v>2524.311867735464</v>
+        <v>2524.311867735463</v>
       </c>
       <c r="T23" t="n">
         <v>2469.928055799814</v>
@@ -6023,10 +6023,10 @@
         <v>2382.685683072038</v>
       </c>
       <c r="V23" t="n">
-        <v>2213.305958061519</v>
+        <v>2213.305958061518</v>
       </c>
       <c r="W23" t="n">
-        <v>2018.370577012659</v>
+        <v>2018.370577012658</v>
       </c>
       <c r="X23" t="n">
         <v>1803.939985627691</v>
@@ -6042,70 +6042,70 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>916.8525970584473</v>
+        <v>916.8525970584468</v>
       </c>
       <c r="C24" t="n">
-        <v>755.1489242994021</v>
+        <v>755.1489242994015</v>
       </c>
       <c r="D24" t="n">
-        <v>616.3102872896141</v>
+        <v>616.3102872896136</v>
       </c>
       <c r="E24" t="n">
-        <v>469.2822773464852</v>
+        <v>469.2822773464849</v>
       </c>
       <c r="F24" t="n">
-        <v>334.5884792963597</v>
+        <v>334.5884792963592</v>
       </c>
       <c r="G24" t="n">
-        <v>206.1503391504152</v>
+        <v>206.1503391504149</v>
       </c>
       <c r="H24" t="n">
         <v>109.0167463785074</v>
       </c>
       <c r="I24" t="n">
-        <v>50.631499101696</v>
+        <v>50.63149910169599</v>
       </c>
       <c r="J24" t="n">
         <v>137.7723726368144</v>
       </c>
       <c r="K24" t="n">
-        <v>137.7723726368144</v>
+        <v>413.2166240983116</v>
       </c>
       <c r="L24" t="n">
-        <v>565.3846370184159</v>
+        <v>840.8288884799132</v>
       </c>
       <c r="M24" t="n">
-        <v>1122.524495282658</v>
+        <v>1397.968746744155</v>
       </c>
       <c r="N24" t="n">
-        <v>1707.805090781033</v>
+        <v>1521.129018650603</v>
       </c>
       <c r="O24" t="n">
-        <v>2167.714260249468</v>
+        <v>1981.038188119038</v>
       </c>
       <c r="P24" t="n">
-        <v>2337.476724739038</v>
+        <v>2337.476724739037</v>
       </c>
       <c r="Q24" t="n">
-        <v>2531.5749550848</v>
+        <v>2531.574955084799</v>
       </c>
       <c r="R24" t="n">
-        <v>2489.818465848147</v>
+        <v>2489.818465848146</v>
       </c>
       <c r="S24" t="n">
-        <v>2342.412285366658</v>
+        <v>2342.412285366657</v>
       </c>
       <c r="T24" t="n">
-        <v>2154.897535411935</v>
+        <v>2154.897535411934</v>
       </c>
       <c r="U24" t="n">
-        <v>1936.421845630691</v>
+        <v>1936.42184563069</v>
       </c>
       <c r="V24" t="n">
-        <v>1708.026223079025</v>
+        <v>1708.026223079024</v>
       </c>
       <c r="W24" t="n">
-        <v>1466.710354312335</v>
+        <v>1466.710354312334</v>
       </c>
       <c r="X24" t="n">
         <v>1268.793366190129</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>210.6463640565086</v>
+        <v>53.72469115678788</v>
       </c>
       <c r="C25" t="n">
-        <v>208.629943611728</v>
+        <v>51.70827071200728</v>
       </c>
       <c r="D25" t="n">
-        <v>208.629943611728</v>
+        <v>51.70827071200728</v>
       </c>
       <c r="E25" t="n">
-        <v>208.629943611728</v>
+        <v>51.70827071200728</v>
       </c>
       <c r="F25" t="n">
-        <v>56.14928863750509</v>
+        <v>51.70827071200728</v>
       </c>
       <c r="G25" t="n">
-        <v>50.631499101696</v>
+        <v>50.63149910169599</v>
       </c>
       <c r="H25" t="n">
-        <v>50.631499101696</v>
+        <v>50.63149910169599</v>
       </c>
       <c r="I25" t="n">
-        <v>50.631499101696</v>
+        <v>50.63149910169599</v>
       </c>
       <c r="J25" t="n">
-        <v>50.631499101696</v>
+        <v>50.63149910169599</v>
       </c>
       <c r="K25" t="n">
         <v>111.9547763562302</v>
@@ -6172,25 +6172,25 @@
         <v>782.3679601895349</v>
       </c>
       <c r="S25" t="n">
-        <v>740.5000315826738</v>
+        <v>583.5783586829533</v>
       </c>
       <c r="T25" t="n">
-        <v>675.960728640081</v>
+        <v>519.0390557403605</v>
       </c>
       <c r="U25" t="n">
-        <v>556.3833161097182</v>
+        <v>399.4616432099976</v>
       </c>
       <c r="V25" t="n">
-        <v>463.2475607616799</v>
+        <v>306.3258878619594</v>
       </c>
       <c r="W25" t="n">
-        <v>344.6907083726181</v>
+        <v>187.7690354728975</v>
       </c>
       <c r="X25" t="n">
-        <v>281.037793361533</v>
+        <v>124.1161204618124</v>
       </c>
       <c r="Y25" t="n">
-        <v>226.6021836473492</v>
+        <v>69.6805107476286</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1803.368283428341</v>
+        <v>1803.368283428342</v>
       </c>
       <c r="C26" t="n">
         <v>1525.000225413085</v>
@@ -6209,13 +6209,13 @@
         <v>1255.741961292245</v>
       </c>
       <c r="E26" t="n">
-        <v>964.521942050288</v>
+        <v>964.5219420502887</v>
       </c>
       <c r="F26" t="n">
-        <v>653.9364520123947</v>
+        <v>653.9364520123954</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9408469271542</v>
+        <v>341.9408469271548</v>
       </c>
       <c r="H26" t="n">
         <v>118.2430030078329</v>
@@ -6227,19 +6227,19 @@
         <v>288.5592683370142</v>
       </c>
       <c r="K26" t="n">
-        <v>697.8616999273315</v>
+        <v>597.7292596894089</v>
       </c>
       <c r="L26" t="n">
-        <v>1131.054259567988</v>
+        <v>1131.054259567989</v>
       </c>
       <c r="M26" t="n">
         <v>1719.191899538645</v>
       </c>
       <c r="N26" t="n">
-        <v>2293.932940143697</v>
+        <v>2293.932940143698</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.058310260591</v>
+        <v>2790.058310260592</v>
       </c>
       <c r="P26" t="n">
         <v>3196.205168803545</v>
@@ -6251,10 +6251,10 @@
         <v>3495.660337173375</v>
       </c>
       <c r="S26" t="n">
-        <v>3424.363401382436</v>
+        <v>3424.363401382437</v>
       </c>
       <c r="T26" t="n">
-        <v>3305.945741005183</v>
+        <v>3305.945741005184</v>
       </c>
       <c r="U26" t="n">
         <v>3154.669519835805</v>
@@ -6266,7 +6266,7 @@
         <v>2662.28671689322</v>
       </c>
       <c r="X26" t="n">
-        <v>2383.822277066649</v>
+        <v>2383.82227706665</v>
       </c>
       <c r="Y26" t="n">
         <v>2093.846122294424</v>
@@ -6306,22 +6306,22 @@
         <v>157.0540802785859</v>
       </c>
       <c r="K27" t="n">
-        <v>432.4983317400831</v>
+        <v>157.0540802785859</v>
       </c>
       <c r="L27" t="n">
-        <v>860.1105961216846</v>
+        <v>584.6663446601875</v>
       </c>
       <c r="M27" t="n">
-        <v>1417.250454385927</v>
+        <v>1141.806202924429</v>
       </c>
       <c r="N27" t="n">
-        <v>1734.508956638136</v>
+        <v>1540.410726292375</v>
       </c>
       <c r="O27" t="n">
-        <v>2194.418126106571</v>
+        <v>2000.319895760809</v>
       </c>
       <c r="P27" t="n">
-        <v>2550.85666272657</v>
+        <v>2356.758432380809</v>
       </c>
       <c r="Q27" t="n">
         <v>2550.85666272657</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>434.8980071462522</v>
+        <v>434.8980071462523</v>
       </c>
       <c r="C28" t="n">
-        <v>368.8477382598689</v>
+        <v>368.8477382598691</v>
       </c>
       <c r="D28" t="n">
-        <v>319.3415457395681</v>
+        <v>319.3415457395682</v>
       </c>
       <c r="E28" t="n">
-        <v>270.8982321528234</v>
+        <v>270.8982321528235</v>
       </c>
       <c r="F28" t="n">
-        <v>221.9832778305369</v>
+        <v>221.983277830537</v>
       </c>
       <c r="G28" t="n">
-        <v>156.872657778623</v>
+        <v>156.8726577786231</v>
       </c>
       <c r="H28" t="n">
         <v>103.2300087905334</v>
@@ -6382,13 +6382,13 @@
         <v>69.9132067434675</v>
       </c>
       <c r="J28" t="n">
-        <v>129.4237188900808</v>
+        <v>129.4237188900811</v>
       </c>
       <c r="K28" t="n">
-        <v>292.2517393535779</v>
+        <v>292.2517393535782</v>
       </c>
       <c r="L28" t="n">
-        <v>529.8344531869594</v>
+        <v>529.8344531869596</v>
       </c>
       <c r="M28" t="n">
         <v>786.7317839334651</v>
@@ -6403,31 +6403,31 @@
         <v>1470.188639231697</v>
       </c>
       <c r="Q28" t="n">
-        <v>1553.901066696968</v>
+        <v>1553.901066696969</v>
       </c>
       <c r="R28" t="n">
-        <v>1518.8903908121</v>
+        <v>1518.890390812101</v>
       </c>
       <c r="S28" t="n">
-        <v>1412.988613763636</v>
+        <v>1412.988613763637</v>
       </c>
       <c r="T28" t="n">
         <v>1284.415462379441</v>
       </c>
       <c r="U28" t="n">
-        <v>1100.804201407475</v>
+        <v>1100.804201407476</v>
       </c>
       <c r="V28" t="n">
-        <v>943.6345976178344</v>
+        <v>943.6345976178346</v>
       </c>
       <c r="W28" t="n">
-        <v>761.04389678717</v>
+        <v>761.0438967871702</v>
       </c>
       <c r="X28" t="n">
-        <v>633.3571333344821</v>
+        <v>633.3571333344823</v>
       </c>
       <c r="Y28" t="n">
-        <v>514.8876751786956</v>
+        <v>514.8876751786958</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1803.368283428341</v>
+        <v>1803.36828342834</v>
       </c>
       <c r="C29" t="n">
-        <v>1525.000225413085</v>
+        <v>1525.000225413084</v>
       </c>
       <c r="D29" t="n">
-        <v>1255.741961292245</v>
+        <v>1255.741961292244</v>
       </c>
       <c r="E29" t="n">
-        <v>964.5219420502881</v>
+        <v>964.5219420502873</v>
       </c>
       <c r="F29" t="n">
-        <v>653.9364520123949</v>
+        <v>653.9364520123941</v>
       </c>
       <c r="G29" t="n">
-        <v>341.9408469271543</v>
+        <v>341.9408469271535</v>
       </c>
       <c r="H29" t="n">
         <v>118.2430030078329</v>
       </c>
       <c r="I29" t="n">
-        <v>69.9132067434675</v>
+        <v>69.91320674346747</v>
       </c>
       <c r="J29" t="n">
         <v>288.5592683370142</v>
@@ -6467,46 +6467,46 @@
         <v>697.8616999273315</v>
       </c>
       <c r="L29" t="n">
-        <v>1131.054259567988</v>
+        <v>1131.054259567987</v>
       </c>
       <c r="M29" t="n">
-        <v>1719.191899538645</v>
+        <v>1719.191899538644</v>
       </c>
       <c r="N29" t="n">
-        <v>2293.932940143697</v>
+        <v>2293.932940143696</v>
       </c>
       <c r="O29" t="n">
         <v>2790.058310260591</v>
       </c>
       <c r="P29" t="n">
-        <v>3196.205168803545</v>
+        <v>3196.205168803544</v>
       </c>
       <c r="Q29" t="n">
-        <v>3449.579379771279</v>
+        <v>3449.579379771278</v>
       </c>
       <c r="R29" t="n">
-        <v>3495.660337173375</v>
+        <v>3495.660337173374</v>
       </c>
       <c r="S29" t="n">
-        <v>3424.363401382436</v>
+        <v>3424.363401382435</v>
       </c>
       <c r="T29" t="n">
-        <v>3305.945741005183</v>
+        <v>3305.945741005182</v>
       </c>
       <c r="U29" t="n">
-        <v>3154.669519835805</v>
+        <v>3154.669519835804</v>
       </c>
       <c r="V29" t="n">
-        <v>2921.255946383682</v>
+        <v>2921.255946383681</v>
       </c>
       <c r="W29" t="n">
-        <v>2662.28671689322</v>
+        <v>2662.286716893219</v>
       </c>
       <c r="X29" t="n">
-        <v>2383.82227706665</v>
+        <v>2383.822277066649</v>
       </c>
       <c r="Y29" t="n">
-        <v>2093.846122294424</v>
+        <v>2093.846122294423</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>936.1343047002184</v>
+        <v>936.1343047002182</v>
       </c>
       <c r="C30" t="n">
-        <v>774.4306319411731</v>
+        <v>774.4306319411729</v>
       </c>
       <c r="D30" t="n">
-        <v>635.5919949313852</v>
+        <v>635.591994931385</v>
       </c>
       <c r="E30" t="n">
-        <v>488.5639849882564</v>
+        <v>488.5639849882563</v>
       </c>
       <c r="F30" t="n">
-        <v>353.8701869381307</v>
+        <v>353.8701869381306</v>
       </c>
       <c r="G30" t="n">
-        <v>225.4320467921864</v>
+        <v>225.4320467921863</v>
       </c>
       <c r="H30" t="n">
         <v>128.2984540202789</v>
       </c>
       <c r="I30" t="n">
-        <v>69.9132067434675</v>
+        <v>69.91320674346747</v>
       </c>
       <c r="J30" t="n">
         <v>157.0540802785859</v>
@@ -6546,19 +6546,19 @@
         <v>432.4983317400831</v>
       </c>
       <c r="L30" t="n">
-        <v>860.1105961216846</v>
+        <v>860.1105961216847</v>
       </c>
       <c r="M30" t="n">
-        <v>1417.250454385927</v>
+        <v>955.1301307939991</v>
       </c>
       <c r="N30" t="n">
-        <v>2002.531049884302</v>
+        <v>1540.410726292374</v>
       </c>
       <c r="O30" t="n">
-        <v>2462.440219352736</v>
+        <v>2000.319895760809</v>
       </c>
       <c r="P30" t="n">
-        <v>2550.85666272657</v>
+        <v>2356.758432380808</v>
       </c>
       <c r="Q30" t="n">
         <v>2550.85666272657</v>
@@ -6567,16 +6567,16 @@
         <v>2509.100173489918</v>
       </c>
       <c r="S30" t="n">
-        <v>2361.693993008429</v>
+        <v>2361.693993008428</v>
       </c>
       <c r="T30" t="n">
         <v>2174.179243053706</v>
       </c>
       <c r="U30" t="n">
-        <v>1955.703553272462</v>
+        <v>1955.703553272461</v>
       </c>
       <c r="V30" t="n">
-        <v>1727.307930720796</v>
+        <v>1727.307930720795</v>
       </c>
       <c r="W30" t="n">
         <v>1485.992061954106</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>434.8980071462526</v>
+        <v>434.8980071462522</v>
       </c>
       <c r="C31" t="n">
-        <v>368.8477382598693</v>
+        <v>368.8477382598689</v>
       </c>
       <c r="D31" t="n">
-        <v>319.3415457395685</v>
+        <v>319.3415457395681</v>
       </c>
       <c r="E31" t="n">
-        <v>270.8982321528237</v>
+        <v>270.8982321528234</v>
       </c>
       <c r="F31" t="n">
-        <v>221.9832778305372</v>
+        <v>221.9832778305369</v>
       </c>
       <c r="G31" t="n">
-        <v>156.8726577786233</v>
+        <v>156.872657778623</v>
       </c>
       <c r="H31" t="n">
         <v>103.2300087905334</v>
       </c>
       <c r="I31" t="n">
-        <v>69.9132067434675</v>
+        <v>69.91320674346747</v>
       </c>
       <c r="J31" t="n">
-        <v>129.4237188900809</v>
+        <v>129.4237188900811</v>
       </c>
       <c r="K31" t="n">
-        <v>292.2517393535779</v>
+        <v>292.2517393535782</v>
       </c>
       <c r="L31" t="n">
-        <v>529.8344531869594</v>
+        <v>529.8344531869596</v>
       </c>
       <c r="M31" t="n">
-        <v>786.7317839334651</v>
+        <v>786.7317839334653</v>
       </c>
       <c r="N31" t="n">
         <v>1043.168683737098</v>
       </c>
       <c r="O31" t="n">
-        <v>1276.859796735943</v>
+        <v>1276.859796735944</v>
       </c>
       <c r="P31" t="n">
         <v>1470.188639231697</v>
@@ -6643,7 +6643,7 @@
         <v>1553.901066696969</v>
       </c>
       <c r="R31" t="n">
-        <v>1518.8903908121</v>
+        <v>1518.890390812101</v>
       </c>
       <c r="S31" t="n">
         <v>1412.988613763637</v>
@@ -6655,16 +6655,16 @@
         <v>1100.804201407476</v>
       </c>
       <c r="V31" t="n">
-        <v>943.6345976178349</v>
+        <v>943.6345976178346</v>
       </c>
       <c r="W31" t="n">
-        <v>761.0438967871704</v>
+        <v>761.0438967871702</v>
       </c>
       <c r="X31" t="n">
-        <v>633.3571333344826</v>
+        <v>633.3571333344823</v>
       </c>
       <c r="Y31" t="n">
-        <v>514.887675178696</v>
+        <v>514.8876751786956</v>
       </c>
     </row>
     <row r="32">
@@ -6683,61 +6683,61 @@
         <v>1241.861873379913</v>
       </c>
       <c r="E32" t="n">
-        <v>953.2577168598951</v>
+        <v>953.2577168598955</v>
       </c>
       <c r="F32" t="n">
-        <v>645.2880895439412</v>
+        <v>645.2880895439419</v>
       </c>
       <c r="G32" t="n">
-        <v>335.9083471806398</v>
+        <v>335.9083471806407</v>
       </c>
       <c r="H32" t="n">
-        <v>114.8263659832591</v>
+        <v>114.8263659832589</v>
       </c>
       <c r="I32" t="n">
-        <v>69.11243244083299</v>
+        <v>69.11243244083296</v>
       </c>
       <c r="J32" t="n">
-        <v>290.3223010881524</v>
+        <v>290.3223010881526</v>
       </c>
       <c r="K32" t="n">
-        <v>702.1885397322424</v>
+        <v>702.1885397322428</v>
       </c>
       <c r="L32" t="n">
-        <v>1238.077346664595</v>
+        <v>1134.00879640186</v>
       </c>
       <c r="M32" t="n">
-        <v>1770.402699400791</v>
+        <v>1724.710243426289</v>
       </c>
       <c r="N32" t="n">
-        <v>2243.638996796881</v>
+        <v>2302.015091085114</v>
       </c>
       <c r="O32" t="n">
-        <v>2742.328173967549</v>
+        <v>2742.328173967546</v>
       </c>
       <c r="P32" t="n">
-        <v>3151.038839564274</v>
+        <v>3151.038839564273</v>
       </c>
       <c r="Q32" t="n">
-        <v>3406.976857585781</v>
+        <v>3406.97685758578</v>
       </c>
       <c r="R32" t="n">
-        <v>3455.621622041649</v>
+        <v>3455.621622041648</v>
       </c>
       <c r="S32" t="n">
-        <v>3386.94054897265</v>
+        <v>3386.940548972649</v>
       </c>
       <c r="T32" t="n">
         <v>3271.138751317336</v>
       </c>
       <c r="U32" t="n">
-        <v>3122.478392869897</v>
+        <v>3122.478392869896</v>
       </c>
       <c r="V32" t="n">
         <v>2891.680682139714</v>
       </c>
       <c r="W32" t="n">
-        <v>2635.327315371191</v>
+        <v>2635.32731537119</v>
       </c>
       <c r="X32" t="n">
         <v>2359.47873826656</v>
@@ -6762,40 +6762,40 @@
         <v>634.7912206287506</v>
       </c>
       <c r="E33" t="n">
-        <v>487.7632106856219</v>
+        <v>487.7632106856217</v>
       </c>
       <c r="F33" t="n">
-        <v>353.0694126354962</v>
+        <v>353.0694126354961</v>
       </c>
       <c r="G33" t="n">
-        <v>224.6312724895519</v>
+        <v>224.6312724895518</v>
       </c>
       <c r="H33" t="n">
         <v>127.4976797176444</v>
       </c>
       <c r="I33" t="n">
-        <v>69.11243244083299</v>
+        <v>69.11243244083296</v>
       </c>
       <c r="J33" t="n">
-        <v>156.2533059759514</v>
+        <v>69.11243244083296</v>
       </c>
       <c r="K33" t="n">
-        <v>431.6975574374486</v>
+        <v>69.11243244083296</v>
       </c>
       <c r="L33" t="n">
-        <v>859.3098218190501</v>
+        <v>496.7246968224345</v>
       </c>
       <c r="M33" t="n">
-        <v>1416.449680083292</v>
+        <v>1053.864555086677</v>
       </c>
       <c r="N33" t="n">
-        <v>1733.708182335502</v>
+        <v>1639.145150585052</v>
       </c>
       <c r="O33" t="n">
-        <v>2193.617351803936</v>
+        <v>1999.519121458175</v>
       </c>
       <c r="P33" t="n">
-        <v>2550.055888423936</v>
+        <v>2355.957658078174</v>
       </c>
       <c r="Q33" t="n">
         <v>2550.055888423936</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>415.7861937900428</v>
+        <v>415.7861937900415</v>
       </c>
       <c r="C34" t="n">
-        <v>352.3517876255988</v>
+        <v>352.3517876255976</v>
       </c>
       <c r="D34" t="n">
-        <v>305.4614578272373</v>
+        <v>305.4614578272362</v>
       </c>
       <c r="E34" t="n">
-        <v>259.6340069624318</v>
+        <v>259.634006962431</v>
       </c>
       <c r="F34" t="n">
-        <v>213.3349153620846</v>
+        <v>213.334915362084</v>
       </c>
       <c r="G34" t="n">
-        <v>150.8401580321099</v>
+        <v>150.8401580321095</v>
       </c>
       <c r="H34" t="n">
-        <v>99.81337176595962</v>
+        <v>99.8133717659594</v>
       </c>
       <c r="I34" t="n">
-        <v>69.11243244083299</v>
+        <v>69.11243244083296</v>
       </c>
       <c r="J34" t="n">
-        <v>131.186751641219</v>
+        <v>131.1867516412192</v>
       </c>
       <c r="K34" t="n">
-        <v>296.5785791584888</v>
+        <v>296.5785791584891</v>
       </c>
       <c r="L34" t="n">
-        <v>536.725100045643</v>
+        <v>536.7251000456434</v>
       </c>
       <c r="M34" t="n">
-        <v>796.1862378459214</v>
+        <v>733.8219778647078</v>
       </c>
       <c r="N34" t="n">
-        <v>992.8226847221168</v>
+        <v>992.8226847221136</v>
       </c>
       <c r="O34" t="n">
-        <v>1229.077604774735</v>
+        <v>1229.077604774732</v>
       </c>
       <c r="P34" t="n">
-        <v>1424.970254324261</v>
+        <v>1424.970254324258</v>
       </c>
       <c r="Q34" t="n">
-        <v>1511.246488843306</v>
+        <v>1511.246488843303</v>
       </c>
       <c r="R34" t="n">
-        <v>1478.851675680377</v>
+        <v>1478.851675680374</v>
       </c>
       <c r="S34" t="n">
-        <v>1375.565761353852</v>
+        <v>1375.565761353849</v>
       </c>
       <c r="T34" t="n">
-        <v>1249.608472691596</v>
+        <v>1249.608472691593</v>
       </c>
       <c r="U34" t="n">
-        <v>1068.61307444157</v>
+        <v>1068.613074441567</v>
       </c>
       <c r="V34" t="n">
-        <v>914.0593333738678</v>
+        <v>914.0593333738657</v>
       </c>
       <c r="W34" t="n">
-        <v>734.0844952651427</v>
+        <v>734.0844952651407</v>
       </c>
       <c r="X34" t="n">
-        <v>609.0135945343941</v>
+        <v>609.0135945343924</v>
       </c>
       <c r="Y34" t="n">
-        <v>493.1599991005469</v>
+        <v>493.1599991005454</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1435.43080428974</v>
+        <v>1435.430804289739</v>
       </c>
       <c r="C35" t="n">
-        <v>1207.752508172449</v>
+        <v>1207.752508172448</v>
       </c>
       <c r="D35" t="n">
-        <v>989.1840059495736</v>
+        <v>989.1840059495723</v>
       </c>
       <c r="E35" t="n">
-        <v>748.6537486055818</v>
+        <v>748.6537486055805</v>
       </c>
       <c r="F35" t="n">
-        <v>488.7580204656533</v>
+        <v>488.7580204656522</v>
       </c>
       <c r="G35" t="n">
-        <v>227.4521772783768</v>
+        <v>227.452177278377</v>
       </c>
       <c r="H35" t="n">
-        <v>54.44409525702105</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="I35" t="n">
-        <v>54.44409525702105</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="J35" t="n">
         <v>171.5854136416049</v>
       </c>
       <c r="K35" t="n">
-        <v>479.3831020229593</v>
+        <v>479.3831020229594</v>
       </c>
       <c r="L35" t="n">
-        <v>911.2033586925761</v>
+        <v>911.2033586925763</v>
       </c>
       <c r="M35" t="n">
         <v>1397.83625545427</v>
@@ -6965,19 +6965,19 @@
         <v>2701.597588958079</v>
       </c>
       <c r="T35" t="n">
-        <v>2633.869690478792</v>
+        <v>2633.869690478791</v>
       </c>
       <c r="U35" t="n">
-        <v>2533.283231207378</v>
+        <v>2533.283231207377</v>
       </c>
       <c r="V35" t="n">
-        <v>2350.559419653221</v>
+        <v>2350.55941965322</v>
       </c>
       <c r="W35" t="n">
         <v>2142.279952060723</v>
       </c>
       <c r="X35" t="n">
-        <v>1914.505274132118</v>
+        <v>1914.505274132117</v>
       </c>
       <c r="Y35" t="n">
         <v>1675.218881257857</v>
@@ -7011,28 +7011,28 @@
         <v>112.8293425338325</v>
       </c>
       <c r="I36" t="n">
-        <v>54.44409525702105</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="J36" t="n">
-        <v>54.44409525702105</v>
+        <v>141.5849687921395</v>
       </c>
       <c r="K36" t="n">
-        <v>329.8883467185182</v>
+        <v>141.5849687921395</v>
       </c>
       <c r="L36" t="n">
-        <v>757.5006111001197</v>
+        <v>569.1972331737411</v>
       </c>
       <c r="M36" t="n">
-        <v>1314.640469364362</v>
+        <v>1126.337091437983</v>
       </c>
       <c r="N36" t="n">
-        <v>1524.941614805928</v>
+        <v>1711.617686936358</v>
       </c>
       <c r="O36" t="n">
-        <v>1984.850784274363</v>
+        <v>2171.526856404793</v>
       </c>
       <c r="P36" t="n">
-        <v>2341.289320894362</v>
+        <v>2527.965393024792</v>
       </c>
       <c r="Q36" t="n">
         <v>2535.387551240124</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.1783474895129</v>
+        <v>87.17834748951324</v>
       </c>
       <c r="C37" t="n">
-        <v>71.81784050109462</v>
+        <v>71.81784050109485</v>
       </c>
       <c r="D37" t="n">
-        <v>71.81784050109462</v>
+        <v>71.81784050109485</v>
       </c>
       <c r="E37" t="n">
-        <v>71.81784050109462</v>
+        <v>71.81784050109485</v>
       </c>
       <c r="F37" t="n">
-        <v>71.81784050109462</v>
+        <v>71.81784050109485</v>
       </c>
       <c r="G37" t="n">
-        <v>57.39698234714565</v>
+        <v>57.39698234714577</v>
       </c>
       <c r="H37" t="n">
-        <v>54.44409525702105</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="I37" t="n">
-        <v>54.44409525702105</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="J37" t="n">
-        <v>54.44409525702105</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="K37" t="n">
         <v>115.7673725115552</v>
@@ -7120,25 +7120,25 @@
         <v>786.18055634486</v>
       </c>
       <c r="S37" t="n">
-        <v>730.9685411943613</v>
+        <v>710.4406208211432</v>
       </c>
       <c r="T37" t="n">
-        <v>653.0851517081308</v>
+        <v>632.5572313349126</v>
       </c>
       <c r="U37" t="n">
-        <v>520.1636526341302</v>
+        <v>499.6357322609119</v>
       </c>
       <c r="V37" t="n">
-        <v>413.6838107424543</v>
+        <v>393.1558903692359</v>
       </c>
       <c r="W37" t="n">
-        <v>281.7828718097549</v>
+        <v>261.2549514365363</v>
       </c>
       <c r="X37" t="n">
-        <v>204.785870255032</v>
+        <v>184.2579498818134</v>
       </c>
       <c r="Y37" t="n">
-        <v>116.4782536239913</v>
+        <v>116.4782536239918</v>
       </c>
     </row>
     <row r="38">
@@ -7154,37 +7154,37 @@
         <v>1207.752508172448</v>
       </c>
       <c r="D38" t="n">
-        <v>989.1840059495726</v>
+        <v>989.1840059495723</v>
       </c>
       <c r="E38" t="n">
-        <v>748.6537486055807</v>
+        <v>748.6537486055805</v>
       </c>
       <c r="F38" t="n">
-        <v>488.7580204656524</v>
+        <v>488.7580204656522</v>
       </c>
       <c r="G38" t="n">
-        <v>227.4521772783769</v>
+        <v>227.452177278377</v>
       </c>
       <c r="H38" t="n">
-        <v>54.44409525702105</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="I38" t="n">
-        <v>54.44409525702105</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="J38" t="n">
         <v>171.5854136416049</v>
       </c>
       <c r="K38" t="n">
-        <v>479.3831020229593</v>
+        <v>479.3831020229594</v>
       </c>
       <c r="L38" t="n">
-        <v>911.2033586925761</v>
+        <v>911.2033586925763</v>
       </c>
       <c r="M38" t="n">
         <v>1397.83625545427</v>
       </c>
       <c r="N38" t="n">
-        <v>1871.072552850359</v>
+        <v>1871.07255285036</v>
       </c>
       <c r="O38" t="n">
         <v>2265.693179758291</v>
@@ -7248,28 +7248,28 @@
         <v>112.8293425338325</v>
       </c>
       <c r="I39" t="n">
-        <v>54.44409525702105</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="J39" t="n">
         <v>141.5849687921395</v>
       </c>
       <c r="K39" t="n">
-        <v>417.0292202536367</v>
+        <v>141.5849687921395</v>
       </c>
       <c r="L39" t="n">
-        <v>844.6414846352382</v>
+        <v>569.1972331737411</v>
       </c>
       <c r="M39" t="n">
-        <v>1401.78134289948</v>
+        <v>1126.337091437983</v>
       </c>
       <c r="N39" t="n">
-        <v>1719.039845151689</v>
+        <v>1711.617686936358</v>
       </c>
       <c r="O39" t="n">
-        <v>2178.949014620124</v>
+        <v>1984.850784274363</v>
       </c>
       <c r="P39" t="n">
-        <v>2535.387551240124</v>
+        <v>2341.289320894362</v>
       </c>
       <c r="Q39" t="n">
         <v>2535.387551240124</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>107.7062678627313</v>
+        <v>87.17834748951324</v>
       </c>
       <c r="C40" t="n">
-        <v>92.34576087431297</v>
+        <v>71.81784050109485</v>
       </c>
       <c r="D40" t="n">
-        <v>92.34576087431297</v>
+        <v>71.81784050109485</v>
       </c>
       <c r="E40" t="n">
-        <v>92.34576087431297</v>
+        <v>71.81784050109485</v>
       </c>
       <c r="F40" t="n">
-        <v>92.34576087431297</v>
+        <v>71.81784050109485</v>
       </c>
       <c r="G40" t="n">
-        <v>77.92490272036392</v>
+        <v>57.39698234714577</v>
       </c>
       <c r="H40" t="n">
-        <v>74.97201563023924</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="I40" t="n">
-        <v>54.44409525702105</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="J40" t="n">
-        <v>54.44409525702105</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="K40" t="n">
         <v>115.7673725115552</v>
@@ -7357,25 +7357,25 @@
         <v>786.18055634486</v>
       </c>
       <c r="S40" t="n">
-        <v>730.9685411943611</v>
+        <v>730.968541194361</v>
       </c>
       <c r="T40" t="n">
-        <v>653.0851517081305</v>
+        <v>653.0851517081304</v>
       </c>
       <c r="U40" t="n">
-        <v>520.1636526341299</v>
+        <v>520.1636526341298</v>
       </c>
       <c r="V40" t="n">
-        <v>413.6838107424538</v>
+        <v>413.6838107424537</v>
       </c>
       <c r="W40" t="n">
-        <v>281.7828718097543</v>
+        <v>281.7828718097542</v>
       </c>
       <c r="X40" t="n">
-        <v>204.7858702550314</v>
+        <v>204.7858702550312</v>
       </c>
       <c r="Y40" t="n">
-        <v>137.0061739972098</v>
+        <v>137.0061739972096</v>
       </c>
     </row>
     <row r="41">
@@ -7385,40 +7385,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1435.430804289738</v>
+        <v>1435.43080428974</v>
       </c>
       <c r="C41" t="n">
-        <v>1207.752508172447</v>
+        <v>1207.752508172448</v>
       </c>
       <c r="D41" t="n">
-        <v>989.1840059495723</v>
+        <v>989.1840059495735</v>
       </c>
       <c r="E41" t="n">
-        <v>748.6537486055807</v>
+        <v>748.6537486055818</v>
       </c>
       <c r="F41" t="n">
-        <v>488.7580204656524</v>
+        <v>488.7580204656535</v>
       </c>
       <c r="G41" t="n">
-        <v>227.4521772783769</v>
+        <v>227.4521772783768</v>
       </c>
       <c r="H41" t="n">
         <v>54.44409525702105</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44409525702088</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="J41" t="n">
-        <v>171.5854136416047</v>
+        <v>171.5854136416046</v>
       </c>
       <c r="K41" t="n">
-        <v>479.3831020229592</v>
+        <v>479.3831020229591</v>
       </c>
       <c r="L41" t="n">
-        <v>911.203358692576</v>
+        <v>911.2033586925756</v>
       </c>
       <c r="M41" t="n">
-        <v>1397.83625545427</v>
+        <v>1397.836255454269</v>
       </c>
       <c r="N41" t="n">
         <v>1871.072552850359</v>
@@ -7436,7 +7436,7 @@
         <v>2722.204762851053</v>
       </c>
       <c r="S41" t="n">
-        <v>2701.59758895808</v>
+        <v>2701.597588958079</v>
       </c>
       <c r="T41" t="n">
         <v>2633.869690478792</v>
@@ -7445,16 +7445,16 @@
         <v>2533.283231207378</v>
       </c>
       <c r="V41" t="n">
-        <v>2350.55941965322</v>
+        <v>2350.559419653221</v>
       </c>
       <c r="W41" t="n">
-        <v>2142.279952060722</v>
+        <v>2142.279952060723</v>
       </c>
       <c r="X41" t="n">
-        <v>1914.505274132117</v>
+        <v>1914.505274132118</v>
       </c>
       <c r="Y41" t="n">
-        <v>1675.218881257856</v>
+        <v>1675.218881257857</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>54.44409525702105</v>
       </c>
       <c r="J42" t="n">
-        <v>141.5849687921395</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="K42" t="n">
-        <v>417.0292202536367</v>
+        <v>329.8883467185182</v>
       </c>
       <c r="L42" t="n">
-        <v>844.6414846352382</v>
+        <v>576.6193913890723</v>
       </c>
       <c r="M42" t="n">
-        <v>1401.78134289948</v>
+        <v>1133.759249653314</v>
       </c>
       <c r="N42" t="n">
-        <v>1987.061938397855</v>
+        <v>1719.039845151689</v>
       </c>
       <c r="O42" t="n">
-        <v>1987.061938397855</v>
+        <v>2178.949014620124</v>
       </c>
       <c r="P42" t="n">
-        <v>2343.500475017855</v>
+        <v>2535.387551240124</v>
       </c>
       <c r="Q42" t="n">
         <v>2535.387551240124</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.17834748951316</v>
+        <v>87.1783474895129</v>
       </c>
       <c r="C43" t="n">
-        <v>71.81784050109479</v>
+        <v>71.81784050109462</v>
       </c>
       <c r="D43" t="n">
-        <v>71.81784050109479</v>
+        <v>71.81784050109462</v>
       </c>
       <c r="E43" t="n">
-        <v>71.81784050109479</v>
+        <v>71.81784050109462</v>
       </c>
       <c r="F43" t="n">
-        <v>71.81784050109479</v>
+        <v>71.81784050109462</v>
       </c>
       <c r="G43" t="n">
-        <v>57.39698234714574</v>
+        <v>57.39698234714565</v>
       </c>
       <c r="H43" t="n">
         <v>54.44409525702105</v>
@@ -7594,25 +7594,25 @@
         <v>786.18055634486</v>
       </c>
       <c r="S43" t="n">
-        <v>710.4406208211429</v>
+        <v>730.9685411943613</v>
       </c>
       <c r="T43" t="n">
-        <v>632.5572313349123</v>
+        <v>632.5572313349115</v>
       </c>
       <c r="U43" t="n">
-        <v>499.6357322609117</v>
+        <v>499.635732260911</v>
       </c>
       <c r="V43" t="n">
-        <v>393.1558903692356</v>
+        <v>393.1558903692351</v>
       </c>
       <c r="W43" t="n">
-        <v>261.2549514365361</v>
+        <v>261.2549514365356</v>
       </c>
       <c r="X43" t="n">
-        <v>184.2579498818132</v>
+        <v>184.2579498818128</v>
       </c>
       <c r="Y43" t="n">
-        <v>116.4782536239916</v>
+        <v>116.4782536239913</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>748.6537486055806</v>
       </c>
       <c r="F44" t="n">
-        <v>488.7580204656524</v>
+        <v>488.7580204656522</v>
       </c>
       <c r="G44" t="n">
         <v>227.4521772783769</v>
@@ -7649,10 +7649,10 @@
         <v>171.5854136416049</v>
       </c>
       <c r="K44" t="n">
-        <v>479.3831020229593</v>
+        <v>479.3831020229594</v>
       </c>
       <c r="L44" t="n">
-        <v>911.2033586925761</v>
+        <v>911.2033586925763</v>
       </c>
       <c r="M44" t="n">
         <v>1397.83625545427</v>
@@ -7728,19 +7728,19 @@
         <v>141.5849687921395</v>
       </c>
       <c r="K45" t="n">
-        <v>417.0292202536367</v>
+        <v>382.5211610433108</v>
       </c>
       <c r="L45" t="n">
-        <v>844.6414846352382</v>
+        <v>382.5211610433108</v>
       </c>
       <c r="M45" t="n">
-        <v>1401.78134289948</v>
+        <v>939.6610193075528</v>
       </c>
       <c r="N45" t="n">
-        <v>1881.380151425927</v>
+        <v>1524.941614805928</v>
       </c>
       <c r="O45" t="n">
-        <v>2341.289320894362</v>
+        <v>1984.850784274363</v>
       </c>
       <c r="P45" t="n">
         <v>2341.289320894362</v>
@@ -7834,16 +7834,16 @@
         <v>730.9685411943611</v>
       </c>
       <c r="T46" t="n">
-        <v>632.5572313349123</v>
+        <v>653.0851517081305</v>
       </c>
       <c r="U46" t="n">
-        <v>499.6357322609117</v>
+        <v>520.1636526341299</v>
       </c>
       <c r="V46" t="n">
-        <v>393.1558903692356</v>
+        <v>413.6838107424538</v>
       </c>
       <c r="W46" t="n">
-        <v>261.2549514365361</v>
+        <v>281.7828718097543</v>
       </c>
       <c r="X46" t="n">
         <v>184.2579498818132</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.0997974279326</v>
+        <v>157.109476210864</v>
       </c>
       <c r="K8" t="n">
-        <v>178.8230039740467</v>
+        <v>188.8326827569781</v>
       </c>
       <c r="L8" t="n">
         <v>191.5602121631146</v>
@@ -8465,10 +8465,10 @@
         <v>196.0033614891845</v>
       </c>
       <c r="O8" t="n">
-        <v>196.9644755630518</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P8" t="n">
-        <v>197.8864878340879</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q8" t="n">
         <v>190.6330518059216</v>
@@ -8529,13 +8529,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>113.0652504495981</v>
       </c>
       <c r="K9" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>122.5851123540791</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
         <v>125.0891498785942</v>
@@ -8611,22 +8611,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K10" t="n">
-        <v>114.8329510464913</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L10" t="n">
         <v>119.6034782614375</v>
       </c>
       <c r="M10" t="n">
-        <v>122.8868782403605</v>
+        <v>122.4824467743834</v>
       </c>
       <c r="N10" t="n">
-        <v>113.3497521949563</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O10" t="n">
-        <v>112.4959374921223</v>
+        <v>122.5056162750536</v>
       </c>
       <c r="P10" t="n">
-        <v>111.9040032899324</v>
+        <v>121.9136820728638</v>
       </c>
       <c r="Q10" t="n">
         <v>84.9458458910769</v>
@@ -8696,7 +8696,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
-        <v>395.6633393882294</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N11" t="n">
         <v>568.5510017355793</v>
@@ -8705,7 +8705,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>418.3383206229274</v>
+        <v>229.6340664704744</v>
       </c>
       <c r="Q11" t="n">
         <v>276.0094878578761</v>
@@ -8769,16 +8769,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>65.57829148857729</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>605.4165828749999</v>
+        <v>416.8548938543642</v>
       </c>
       <c r="N12" t="n">
-        <v>156.3568809982091</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.5010356988638</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>351.0093462148935</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
         <v>542.9595789155856</v>
@@ -8939,7 +8939,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O14" t="n">
-        <v>495.0402356415689</v>
+        <v>306.3359814891159</v>
       </c>
       <c r="P14" t="n">
         <v>418.3383206229274</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>75.897261563624</v>
+        <v>75.89726156362399</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9012,7 +9012,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>226.6494616054968</v>
+        <v>586.6883874842839</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
@@ -9021,7 +9021,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>53.96267335313115</v>
       </c>
       <c r="Q15" t="n">
         <v>273.1004740566038</v>
@@ -9164,7 +9164,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>232.6847821900614</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
         <v>542.9595789155856</v>
@@ -9179,7 +9179,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
-        <v>418.3383206229274</v>
+        <v>229.6340664704744</v>
       </c>
       <c r="Q17" t="n">
         <v>276.0094878578761</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>75.897261563624</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9252,10 +9252,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>620.9115976329905</v>
       </c>
       <c r="O18" t="n">
-        <v>133.2538937902445</v>
+        <v>47.46629842496573</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
@@ -9398,16 +9398,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>101.5010356988638</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>421.3890363425141</v>
+        <v>232.6847821900611</v>
       </c>
       <c r="L20" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>513.9879034130616</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N20" t="n">
         <v>568.5510017355793</v>
@@ -9483,13 +9483,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>50.16086871106101</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>570.5599574100252</v>
       </c>
       <c r="N21" t="n">
-        <v>352.4156995292804</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>77.04165552553152</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>101.5010356988638</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
         <v>421.3890363425141</v>
@@ -9644,7 +9644,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M23" t="n">
-        <v>584.3675935406823</v>
+        <v>395.6633393882292</v>
       </c>
       <c r="N23" t="n">
         <v>568.5510017355793</v>
@@ -9656,7 +9656,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>205.6297977302555</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9717,7 +9717,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>65.57829148857732</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9726,13 +9726,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>156.3568809982079</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>225.4399102112831</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
         <v>273.1004740566038</v>
@@ -9954,7 +9954,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>343.8048081163522</v>
+        <v>65.57829148857729</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>352.4156995292806</v>
+        <v>434.5833976259831</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>77.04165552553152</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10197,7 +10197,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>605.4165828749999</v>
+        <v>138.6283772265882</v>
       </c>
       <c r="N30" t="n">
         <v>623.1450866466196</v>
@@ -10206,10 +10206,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>143.2722121145799</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>77.04165552553152</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10425,10 +10425,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>75.89726156362399</v>
       </c>
       <c r="K33" t="n">
-        <v>343.8048081163522</v>
+        <v>65.57829148857729</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10437,16 +10437,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>352.4156995292804</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
-        <v>512.0210150597484</v>
+        <v>411.4804104180195</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>77.04165552553152</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10592,7 +10592,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M35" t="n">
-        <v>584.3675935406822</v>
+        <v>584.3675935406819</v>
       </c>
       <c r="N35" t="n">
         <v>568.5510017355793</v>
@@ -10662,10 +10662,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>75.897261563624</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>65.57829148857729</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10674,7 +10674,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>244.3779653771156</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10683,7 +10683,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>84.53878503596724</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10902,7 +10902,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>65.57829148857729</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10911,16 +10911,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>352.4156995292804</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>323.4593260391118</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>77.04165552553152</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11136,13 +11136,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>75.89726156362399</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>482.0924488944969</v>
+        <v>299.3841461560652</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
@@ -11151,13 +11151,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>47.46629842496577</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>270.8669850429751</v>
+        <v>77.04165552553151</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11303,10 +11303,10 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>584.3675935406823</v>
+        <v>584.3675935406819</v>
       </c>
       <c r="N44" t="n">
-        <v>568.5510017355795</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O44" t="n">
         <v>495.0402356415689</v>
@@ -11376,22 +11376,22 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163522</v>
+        <v>308.9481826513767</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>50.16086871106101</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>516.3958068769953</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>53.96267335313117</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
         <v>273.1004740566038</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>301.5465712312742</v>
       </c>
       <c r="C11" t="n">
-        <v>176.7637200257874</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>302.2813298033894</v>
+        <v>302.2813298033896</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>321.4531458913667</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>219.67725208409</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>131.2069945273323</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>245.0529484714533</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>289.6533061821568</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.16328210597126</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>61.93239120472967</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>30.10330145808643</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>78.4330246052472</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>67.07973325206108</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>46.95714478044763</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>48.63407987987213</v>
       </c>
       <c r="S13" t="n">
-        <v>45.23808849826143</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>194.7383045762101</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>289.5578881889559</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>280.5391922334839</v>
+        <v>265.2216170965322</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>321.4531458913666</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>322.8491597882405</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>235.4343762339798</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>131.2069945273323</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>142.6043200819927</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>301.0499039783556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>79.36327695137174</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>61.93239120472958</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>62.39931553291589</v>
       </c>
       <c r="G16" t="n">
         <v>78.43302460524711</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>67.079733252061</v>
       </c>
       <c r="I16" t="n">
         <v>46.95714478044755</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>128.3862288433752</v>
+        <v>16.33806580504083</v>
       </c>
     </row>
     <row r="17">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>953521.7051176954</v>
+        <v>953521.7051176953</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>953521.7051176954</v>
+        <v>953521.7051176956</v>
       </c>
     </row>
     <row r="7">
@@ -26320,19 +26320,19 @@
         <v>422108.5948032507</v>
       </c>
       <c r="E2" t="n">
-        <v>367669.5152287548</v>
+        <v>367669.5152287549</v>
       </c>
       <c r="F2" t="n">
-        <v>367669.5152287548</v>
+        <v>367669.515228755</v>
       </c>
       <c r="G2" t="n">
-        <v>422193.2332717995</v>
+        <v>422193.2332717996</v>
       </c>
       <c r="H2" t="n">
-        <v>422193.2332717995</v>
+        <v>422193.2332717997</v>
       </c>
       <c r="I2" t="n">
-        <v>422193.2332717994</v>
+        <v>422193.2332717996</v>
       </c>
       <c r="J2" t="n">
         <v>422193.2332718011</v>
@@ -26341,16 +26341,16 @@
         <v>422193.233271801</v>
       </c>
       <c r="L2" t="n">
-        <v>422193.2332717995</v>
+        <v>422193.2332717991</v>
       </c>
       <c r="M2" t="n">
-        <v>422193.2332717999</v>
+        <v>422193.2332718</v>
       </c>
       <c r="N2" t="n">
         <v>422193.2332718</v>
       </c>
       <c r="O2" t="n">
-        <v>422193.2332718001</v>
+        <v>422193.2332718</v>
       </c>
       <c r="P2" t="n">
         <v>422193.2332718001</v>
@@ -26375,10 +26375,10 @@
         <v>364193.0327823791</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.58084380639983e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>61893.6165688312</v>
+        <v>61893.61656883116</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>83192.20727529822</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>7.71771218361599e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>63965.3798446071</v>
+        <v>63965.37984460721</v>
       </c>
       <c r="M3" t="n">
-        <v>147607.1236882955</v>
+        <v>147607.1236882953</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>20130.41834750247</v>
+        <v>20130.41834750251</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,28 +26424,28 @@
         <v>396776.6118112199</v>
       </c>
       <c r="E4" t="n">
-        <v>243850.6379113334</v>
+        <v>243850.6379113333</v>
       </c>
       <c r="F4" t="n">
         <v>243850.6379113334</v>
       </c>
       <c r="G4" t="n">
-        <v>300233.0890957768</v>
+        <v>300233.0890957767</v>
       </c>
       <c r="H4" t="n">
         <v>300233.0890957767</v>
       </c>
       <c r="I4" t="n">
-        <v>300233.0890957768</v>
+        <v>300233.0890957767</v>
       </c>
       <c r="J4" t="n">
         <v>298128.2578581519</v>
       </c>
       <c r="K4" t="n">
-        <v>298128.2578581519</v>
+        <v>298128.2578581518</v>
       </c>
       <c r="L4" t="n">
-        <v>298074.6449804871</v>
+        <v>298074.6449804872</v>
       </c>
       <c r="M4" t="n">
         <v>297110.1202412423</v>
@@ -26476,7 +26476,7 @@
         <v>34236.18847000223</v>
       </c>
       <c r="E5" t="n">
-        <v>48838.19261242529</v>
+        <v>48838.19261242528</v>
       </c>
       <c r="F5" t="n">
         <v>48838.19261242529</v>
@@ -26488,13 +26488,13 @@
         <v>55342.36067658162</v>
       </c>
       <c r="I5" t="n">
-        <v>55342.36067658163</v>
+        <v>55342.36067658162</v>
       </c>
       <c r="J5" t="n">
-        <v>64667.02949573723</v>
+        <v>64667.02949573724</v>
       </c>
       <c r="K5" t="n">
-        <v>64667.02949573723</v>
+        <v>64667.02949573722</v>
       </c>
       <c r="L5" t="n">
         <v>64276.15485927401</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9465.610074698772</v>
+        <v>-9469.978647165908</v>
       </c>
       <c r="C6" t="n">
-        <v>-9465.61007469883</v>
+        <v>-9469.978647166083</v>
       </c>
       <c r="D6" t="n">
-        <v>-12013.51199831344</v>
+        <v>-12013.89671862491</v>
       </c>
       <c r="E6" t="n">
-        <v>-289212.3480773829</v>
+        <v>-289460.1831593966</v>
       </c>
       <c r="F6" t="n">
-        <v>74980.68470499618</v>
+        <v>74732.84962298242</v>
       </c>
       <c r="G6" t="n">
-        <v>4724.166930609848</v>
+        <v>4724.166930610081</v>
       </c>
       <c r="H6" t="n">
-        <v>66617.78349944117</v>
+        <v>66617.78349944146</v>
       </c>
       <c r="I6" t="n">
-        <v>66617.78349944099</v>
+        <v>66617.78349944134</v>
       </c>
       <c r="J6" t="n">
-        <v>-23794.26135738625</v>
+        <v>-23794.26135738615</v>
       </c>
       <c r="K6" t="n">
-        <v>59397.94591791188</v>
+        <v>59397.94591791189</v>
       </c>
       <c r="L6" t="n">
-        <v>-4122.946412568708</v>
+        <v>-4122.94641256929</v>
       </c>
       <c r="M6" t="n">
-        <v>-79653.33864084588</v>
+        <v>-79653.33864084553</v>
       </c>
       <c r="N6" t="n">
-        <v>67953.7850474498</v>
+        <v>67953.78504744967</v>
       </c>
       <c r="O6" t="n">
-        <v>47823.36669994732</v>
+        <v>47823.3666999472</v>
       </c>
       <c r="P6" t="n">
-        <v>67953.7850474498</v>
+        <v>67953.78504744986</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="F2" t="n">
         <v>88.55653289156476</v>
       </c>
       <c r="G2" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="H2" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="I2" t="n">
         <v>165.9235536026037</v>
@@ -26713,16 +26713,16 @@
         <v>102.5300436454171</v>
       </c>
       <c r="L2" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="M2" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="N2" t="n">
         <v>152.7129079244023</v>
       </c>
       <c r="O2" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="P2" t="n">
         <v>152.7129079244023</v>
@@ -26808,22 +26808,22 @@
         <v>632.8937387711999</v>
       </c>
       <c r="I4" t="n">
-        <v>632.8937387712</v>
+        <v>632.8937387711999</v>
       </c>
       <c r="J4" t="n">
-        <v>873.9150842933436</v>
+        <v>873.9150842933437</v>
       </c>
       <c r="K4" t="n">
-        <v>873.9150842933436</v>
+        <v>873.9150842933434</v>
       </c>
       <c r="L4" t="n">
-        <v>863.9054055104123</v>
+        <v>863.905405510412</v>
       </c>
       <c r="M4" t="n">
-        <v>680.5511907127632</v>
+        <v>680.5511907127633</v>
       </c>
       <c r="N4" t="n">
-        <v>680.5511907127632</v>
+        <v>680.5511907127633</v>
       </c>
       <c r="O4" t="n">
         <v>680.5511907127632</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.226054757999787e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>77.367020711039</v>
+        <v>77.36702071103895</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.16302293437809</v>
+        <v>25.16302293437802</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.647140229519987e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>79.95672480575888</v>
+        <v>79.95672480575901</v>
       </c>
       <c r="M2" t="n">
-        <v>47.59316018426546</v>
+        <v>47.59316018426516</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.16302293437809</v>
+        <v>25.16302293437813</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0213455221436</v>
+        <v>241.0213455221439</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>439.5298451906194</v>
+        <v>439.5298451906198</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.226054757999787e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>77.367020711039</v>
+        <v>77.36702071103895</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.16302293437809</v>
+        <v>25.16302293437802</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>9.647140229519987e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27871,7 +27871,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>162.272501731286</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>80.91537856709924</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>175.3470068330182</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -27916,7 +27916,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>368.2001602907902</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -27941,7 +27941,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>124.5303349976185</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
@@ -27980,7 +27980,7 @@
         <v>49.17674743307231</v>
       </c>
       <c r="S9" t="n">
-        <v>141.2618133344558</v>
+        <v>142.4549670453812</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
@@ -27989,7 +27989,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>226.1116663261494</v>
+        <v>216.101987543218</v>
       </c>
       <c r="W9" t="n">
         <v>238.9027100790231</v>
@@ -28011,7 +28011,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429365</v>
+        <v>159.1032847709306</v>
       </c>
       <c r="D10" t="n">
         <v>151.5411742405149</v>
@@ -28026,13 +28026,13 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>148.962393696513</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>132.7513351704169</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>49.44698741703764</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>28.14228914991649</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>138.0168847888342</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>201.5629861874179</v>
       </c>
       <c r="T10" t="n">
         <v>230.8471636524779</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="C11" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="D11" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="E11" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="F11" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="G11" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="H11" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="I11" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>55.98362202713893</v>
+        <v>55.98362202713891</v>
       </c>
       <c r="S11" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="T11" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="U11" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="V11" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="W11" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="X11" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="Y11" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
     </row>
     <row r="12">
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-8.100187187665142e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="C13" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="D13" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="E13" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="F13" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="G13" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="H13" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="I13" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="J13" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="K13" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="L13" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="M13" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="N13" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="O13" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="P13" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="R13" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="S13" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="T13" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="U13" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="V13" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="W13" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="X13" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.55653289156476</v>
+        <v>88.55653289156467</v>
       </c>
     </row>
     <row r="14">
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>55.98362202713893</v>
+        <v>55.98362202713891</v>
       </c>
       <c r="S14" t="n">
         <v>88.55653289156476</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="C17" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="D17" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="E17" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="F17" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="G17" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="H17" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="I17" t="n">
         <v>150.3765419471388</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.98362202713893</v>
+        <v>55.98362202713891</v>
       </c>
       <c r="S17" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="T17" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="U17" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="V17" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="W17" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="X17" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="Y17" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
     </row>
     <row r="18">
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="C19" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28734,7 +28734,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="H19" t="n">
         <v>155.6362661436258</v>
@@ -28743,7 +28743,7 @@
         <v>135.5136776720123</v>
       </c>
       <c r="J19" t="n">
-        <v>42.4184152144945</v>
+        <v>42.41841521449449</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.97203610473861</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>137.1906127714368</v>
       </c>
       <c r="S19" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="T19" t="n">
-        <v>10.57109743187996</v>
+        <v>28.543133536619</v>
       </c>
       <c r="U19" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="V19" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="W19" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="X19" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="C20" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="D20" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="E20" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="F20" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="G20" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="H20" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="I20" t="n">
         <v>150.3765419471388</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>55.98362202713893</v>
+        <v>55.98362202713891</v>
       </c>
       <c r="S20" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="T20" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="U20" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="V20" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="W20" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="X20" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="Y20" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
     </row>
     <row r="21">
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="C22" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28971,7 +28971,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="H22" t="n">
         <v>155.6362661436258</v>
@@ -28980,7 +28980,7 @@
         <v>135.5136776720123</v>
       </c>
       <c r="J22" t="n">
-        <v>42.4184152144945</v>
+        <v>42.41841521449449</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.97203610473861</v>
+        <v>17.9720361047386</v>
       </c>
       <c r="R22" t="n">
         <v>137.1906127714368</v>
       </c>
       <c r="S22" t="n">
-        <v>10.57109743187988</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="T22" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="U22" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="V22" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="W22" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="X22" t="n">
-        <v>165.9235536026038</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.9235536026038</v>
+        <v>10.57109743188036</v>
       </c>
     </row>
     <row r="23">
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.98362202713893</v>
+        <v>55.98362202713891</v>
       </c>
       <c r="S23" t="n">
         <v>165.9235536026037</v>
@@ -29205,10 +29205,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>161.5269458563609</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="H25" t="n">
         <v>155.6362661436258</v>
@@ -29217,7 +29217,7 @@
         <v>135.5136776720123</v>
       </c>
       <c r="J25" t="n">
-        <v>42.4184152144945</v>
+        <v>42.41841521449449</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,13 +29238,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.97203610473861</v>
+        <v>17.9720361047386</v>
       </c>
       <c r="R25" t="n">
         <v>137.1906127714368</v>
       </c>
       <c r="S25" t="n">
-        <v>165.9235536026037</v>
+        <v>10.57109743188042</v>
       </c>
       <c r="T25" t="n">
         <v>165.9235536026037</v>
@@ -29299,10 +29299,10 @@
         <v>102.5300436454171</v>
       </c>
       <c r="K26" t="n">
+        <v>1.38616461721233</v>
+      </c>
+      <c r="L26" t="n">
         <v>102.5300436454171</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.386164617211875</v>
       </c>
       <c r="M26" t="n">
         <v>102.5300436454171</v>
@@ -29469,7 +29469,7 @@
         <v>102.5300436454171</v>
       </c>
       <c r="O28" t="n">
-        <v>102.5300436454167</v>
+        <v>102.5300436454171</v>
       </c>
       <c r="P28" t="n">
         <v>102.5300436454171</v>
@@ -29539,7 +29539,7 @@
         <v>102.5300436454171</v>
       </c>
       <c r="L29" t="n">
-        <v>1.386164617211875</v>
+        <v>1.386164617210909</v>
       </c>
       <c r="M29" t="n">
         <v>102.5300436454171</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="C32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="D32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="E32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="F32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="G32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="H32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="I32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="J32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="K32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="L32" t="n">
-        <v>105.1197477401369</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>46.15399593384149</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="O32" t="n">
-        <v>105.1197477401369</v>
+        <v>46.15399593383876</v>
       </c>
       <c r="P32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="Q32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="R32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="S32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="T32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="U32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="V32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="W32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="X32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="Y32" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="C34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="D34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="E34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="F34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="G34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="H34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="I34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="J34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="K34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="L34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="M34" t="n">
-        <v>105.1197477401369</v>
+        <v>42.12554573891074</v>
       </c>
       <c r="N34" t="n">
-        <v>42.1255457389145</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="O34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="P34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="Q34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="R34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="S34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="T34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="U34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="V34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="W34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="X34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
       <c r="Y34" t="n">
-        <v>105.1197477401369</v>
+        <v>105.1197477401371</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="C35" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="D35" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="E35" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="F35" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="G35" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="H35" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="I35" t="n">
         <v>150.3765419471388</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.98362202713893</v>
+        <v>55.98362202713891</v>
       </c>
       <c r="S35" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="T35" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="U35" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="V35" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="W35" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="X35" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="Y35" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="C37" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30156,16 +30156,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="H37" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="I37" t="n">
         <v>135.5136776720123</v>
       </c>
       <c r="J37" t="n">
-        <v>42.4184152144945</v>
+        <v>42.41841521449449</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.97203610473861</v>
+        <v>17.9720361047386</v>
       </c>
       <c r="R37" t="n">
         <v>137.1906127714368</v>
       </c>
       <c r="S37" t="n">
-        <v>152.7129079244024</v>
+        <v>132.3902667549166</v>
       </c>
       <c r="T37" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="U37" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="V37" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="W37" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="X37" t="n">
-        <v>152.7129079244024</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="Y37" t="n">
-        <v>132.3902667549154</v>
+        <v>152.7129079244023</v>
       </c>
     </row>
     <row r="38">
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.98362202713893</v>
+        <v>55.98362202713891</v>
       </c>
       <c r="S38" t="n">
         <v>152.7129079244023</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>152.7129079244023</v>
+        <v>132.3902667549166</v>
       </c>
       <c r="C40" t="n">
         <v>152.7129079244023</v>
@@ -30399,10 +30399,10 @@
         <v>152.7129079244023</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1910365025263</v>
+        <v>135.5136776720123</v>
       </c>
       <c r="J40" t="n">
-        <v>42.4184152144945</v>
+        <v>42.41841521449449</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.97203610473861</v>
+        <v>17.9720361047386</v>
       </c>
       <c r="R40" t="n">
         <v>137.1906127714368</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="C41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="D41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="E41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="F41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="G41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="H41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="I41" t="n">
         <v>150.3765419471388</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.98362202713893</v>
+        <v>55.98362202713891</v>
       </c>
       <c r="S41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="T41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="U41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="V41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="W41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="X41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="Y41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="C43" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30630,16 +30630,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="H43" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="I43" t="n">
         <v>135.5136776720123</v>
       </c>
       <c r="J43" t="n">
-        <v>42.4184152144945</v>
+        <v>42.41841521449449</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.97203610473861</v>
+        <v>17.9720361047386</v>
       </c>
       <c r="R43" t="n">
         <v>137.1906127714368</v>
       </c>
       <c r="S43" t="n">
-        <v>132.3902667549163</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="T43" t="n">
-        <v>152.7129079244023</v>
+        <v>132.3902667549154</v>
       </c>
       <c r="U43" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="V43" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="W43" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="X43" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="Y43" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
     </row>
     <row r="44">
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>55.98362202713893</v>
+        <v>55.98362202713891</v>
       </c>
       <c r="S44" t="n">
         <v>152.7129079244023</v>
@@ -30876,7 +30876,7 @@
         <v>135.5136776720123</v>
       </c>
       <c r="J46" t="n">
-        <v>42.4184152144945</v>
+        <v>42.41841521449449</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.97203610473861</v>
+        <v>17.9720361047386</v>
       </c>
       <c r="R46" t="n">
         <v>137.1906127714368</v>
@@ -30906,7 +30906,7 @@
         <v>152.7129079244023</v>
       </c>
       <c r="T46" t="n">
-        <v>132.3902667549163</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="U46" t="n">
         <v>152.7129079244023</v>
@@ -30918,7 +30918,7 @@
         <v>152.7129079244023</v>
       </c>
       <c r="X46" t="n">
-        <v>152.7129079244023</v>
+        <v>132.3902667549163</v>
       </c>
       <c r="Y46" t="n">
         <v>152.7129079244023</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5372540005486833</v>
+        <v>0.5372540005486836</v>
       </c>
       <c r="H11" t="n">
-        <v>5.502152533119204</v>
+        <v>5.502152533119207</v>
       </c>
       <c r="I11" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J11" t="n">
-        <v>45.59876172906885</v>
+        <v>45.59876172906888</v>
       </c>
       <c r="K11" t="n">
-        <v>68.34072357229464</v>
+        <v>68.34072357229466</v>
       </c>
       <c r="L11" t="n">
-        <v>84.78271069158642</v>
+        <v>84.78271069158646</v>
       </c>
       <c r="M11" t="n">
-        <v>94.33710152384405</v>
+        <v>94.3371015238441</v>
       </c>
       <c r="N11" t="n">
-        <v>95.86357445290301</v>
+        <v>95.86357445290305</v>
       </c>
       <c r="O11" t="n">
-        <v>90.52125498494703</v>
+        <v>90.52125498494708</v>
       </c>
       <c r="P11" t="n">
-        <v>77.2577968464014</v>
+        <v>77.25779684640145</v>
       </c>
       <c r="Q11" t="n">
-        <v>58.01738795175167</v>
+        <v>58.01738795175169</v>
       </c>
       <c r="R11" t="n">
-        <v>33.74828161196626</v>
+        <v>33.74828161196628</v>
       </c>
       <c r="S11" t="n">
-        <v>12.24267553750313</v>
+        <v>12.24267553750314</v>
       </c>
       <c r="T11" t="n">
         <v>2.351829387401863</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04298032004389466</v>
+        <v>0.04298032004389468</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.287456232463383</v>
+        <v>0.2874562324633831</v>
       </c>
       <c r="H12" t="n">
-        <v>2.776222034580568</v>
+        <v>2.776222034580569</v>
       </c>
       <c r="I12" t="n">
-        <v>9.897067652796302</v>
+        <v>9.897067652796306</v>
       </c>
       <c r="J12" t="n">
-        <v>27.15831010304269</v>
+        <v>27.15831010304271</v>
       </c>
       <c r="K12" t="n">
-        <v>46.41787767808935</v>
+        <v>46.41787767808938</v>
       </c>
       <c r="L12" t="n">
-        <v>62.41456486008674</v>
+        <v>62.41456486008677</v>
       </c>
       <c r="M12" t="n">
-        <v>72.83485328688435</v>
+        <v>72.8348532868844</v>
       </c>
       <c r="N12" t="n">
-        <v>74.7625751265182</v>
+        <v>74.76257512651823</v>
       </c>
       <c r="O12" t="n">
-        <v>68.39315018614533</v>
+        <v>68.39315018614538</v>
       </c>
       <c r="P12" t="n">
-        <v>54.89153267101215</v>
+        <v>54.89153267101217</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.69353591936096</v>
+        <v>36.69353591936098</v>
       </c>
       <c r="R12" t="n">
-        <v>17.84750187171777</v>
+        <v>17.84750187171778</v>
       </c>
       <c r="S12" t="n">
-        <v>5.339373440712396</v>
+        <v>5.339373440712398</v>
       </c>
       <c r="T12" t="n">
-        <v>1.158650340499337</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U12" t="n">
         <v>0.01891159424101205</v>
@@ -31908,34 +31908,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2409936490166124</v>
+        <v>0.2409936490166125</v>
       </c>
       <c r="H13" t="n">
-        <v>2.142652624893155</v>
+        <v>2.142652624893156</v>
       </c>
       <c r="I13" t="n">
-        <v>7.247336281335946</v>
+        <v>7.24733628133595</v>
       </c>
       <c r="J13" t="n">
-        <v>17.0382509854745</v>
+        <v>17.03825098547451</v>
       </c>
       <c r="K13" t="n">
-        <v>27.99908031302096</v>
+        <v>27.99908031302098</v>
       </c>
       <c r="L13" t="n">
-        <v>35.82918305470618</v>
+        <v>35.8291830547062</v>
       </c>
       <c r="M13" t="n">
-        <v>37.77684990903134</v>
+        <v>37.77684990903136</v>
       </c>
       <c r="N13" t="n">
-        <v>36.87860085360582</v>
+        <v>36.87860085360583</v>
       </c>
       <c r="O13" t="n">
-        <v>34.06335686282083</v>
+        <v>34.06335686282085</v>
       </c>
       <c r="P13" t="n">
-        <v>29.14708642288191</v>
+        <v>29.14708642288192</v>
       </c>
       <c r="Q13" t="n">
         <v>20.17993182810925</v>
@@ -31944,13 +31944,13 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S13" t="n">
-        <v>4.199862046953144</v>
+        <v>4.199862046953146</v>
       </c>
       <c r="T13" t="n">
         <v>1.029700136707344</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01314510812817887</v>
+        <v>0.01314510812817888</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5372540005486833</v>
+        <v>0.5372540005486836</v>
       </c>
       <c r="H14" t="n">
-        <v>5.502152533119204</v>
+        <v>5.502152533119207</v>
       </c>
       <c r="I14" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J14" t="n">
-        <v>45.59876172906885</v>
+        <v>45.59876172906888</v>
       </c>
       <c r="K14" t="n">
-        <v>68.34072357229464</v>
+        <v>68.34072357229466</v>
       </c>
       <c r="L14" t="n">
-        <v>84.78271069158642</v>
+        <v>84.78271069158646</v>
       </c>
       <c r="M14" t="n">
-        <v>94.33710152384405</v>
+        <v>94.3371015238441</v>
       </c>
       <c r="N14" t="n">
-        <v>95.86357445290301</v>
+        <v>95.86357445290305</v>
       </c>
       <c r="O14" t="n">
-        <v>90.52125498494703</v>
+        <v>90.52125498494708</v>
       </c>
       <c r="P14" t="n">
-        <v>77.2577968464014</v>
+        <v>77.25779684640145</v>
       </c>
       <c r="Q14" t="n">
-        <v>58.01738795175167</v>
+        <v>58.01738795175169</v>
       </c>
       <c r="R14" t="n">
-        <v>33.74828161196626</v>
+        <v>33.74828161196628</v>
       </c>
       <c r="S14" t="n">
-        <v>12.24267553750313</v>
+        <v>12.24267553750314</v>
       </c>
       <c r="T14" t="n">
         <v>2.351829387401863</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04298032004389466</v>
+        <v>0.04298032004389468</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.287456232463383</v>
+        <v>0.2874562324633831</v>
       </c>
       <c r="H15" t="n">
-        <v>2.776222034580568</v>
+        <v>2.776222034580569</v>
       </c>
       <c r="I15" t="n">
-        <v>9.897067652796302</v>
+        <v>9.897067652796306</v>
       </c>
       <c r="J15" t="n">
-        <v>27.15831010304269</v>
+        <v>27.15831010304271</v>
       </c>
       <c r="K15" t="n">
-        <v>46.41787767808935</v>
+        <v>46.41787767808938</v>
       </c>
       <c r="L15" t="n">
-        <v>62.41456486008674</v>
+        <v>62.41456486008677</v>
       </c>
       <c r="M15" t="n">
-        <v>72.83485328688435</v>
+        <v>72.8348532868844</v>
       </c>
       <c r="N15" t="n">
-        <v>74.7625751265182</v>
+        <v>74.76257512651823</v>
       </c>
       <c r="O15" t="n">
-        <v>68.39315018614533</v>
+        <v>68.39315018614538</v>
       </c>
       <c r="P15" t="n">
-        <v>54.89153267101215</v>
+        <v>54.89153267101217</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.69353591936096</v>
+        <v>36.69353591936098</v>
       </c>
       <c r="R15" t="n">
-        <v>17.84750187171777</v>
+        <v>17.84750187171778</v>
       </c>
       <c r="S15" t="n">
-        <v>5.339373440712396</v>
+        <v>5.339373440712398</v>
       </c>
       <c r="T15" t="n">
-        <v>1.158650340499337</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U15" t="n">
         <v>0.01891159424101205</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2409936490166124</v>
+        <v>0.2409936490166125</v>
       </c>
       <c r="H16" t="n">
-        <v>2.142652624893155</v>
+        <v>2.142652624893156</v>
       </c>
       <c r="I16" t="n">
-        <v>7.247336281335946</v>
+        <v>7.24733628133595</v>
       </c>
       <c r="J16" t="n">
-        <v>17.0382509854745</v>
+        <v>17.03825098547451</v>
       </c>
       <c r="K16" t="n">
-        <v>27.99908031302096</v>
+        <v>27.99908031302098</v>
       </c>
       <c r="L16" t="n">
-        <v>35.82918305470618</v>
+        <v>35.8291830547062</v>
       </c>
       <c r="M16" t="n">
-        <v>37.77684990903134</v>
+        <v>37.77684990903136</v>
       </c>
       <c r="N16" t="n">
-        <v>36.87860085360582</v>
+        <v>36.87860085360583</v>
       </c>
       <c r="O16" t="n">
-        <v>34.06335686282083</v>
+        <v>34.06335686282085</v>
       </c>
       <c r="P16" t="n">
-        <v>29.14708642288191</v>
+        <v>29.14708642288192</v>
       </c>
       <c r="Q16" t="n">
         <v>20.17993182810925</v>
@@ -32181,13 +32181,13 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S16" t="n">
-        <v>4.199862046953144</v>
+        <v>4.199862046953146</v>
       </c>
       <c r="T16" t="n">
         <v>1.029700136707344</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01314510812817887</v>
+        <v>0.01314510812817888</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5372540005486833</v>
+        <v>0.5372540005486836</v>
       </c>
       <c r="H17" t="n">
-        <v>5.502152533119204</v>
+        <v>5.502152533119207</v>
       </c>
       <c r="I17" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J17" t="n">
-        <v>45.59876172906885</v>
+        <v>45.59876172906888</v>
       </c>
       <c r="K17" t="n">
-        <v>68.34072357229464</v>
+        <v>68.34072357229466</v>
       </c>
       <c r="L17" t="n">
-        <v>84.78271069158642</v>
+        <v>84.78271069158646</v>
       </c>
       <c r="M17" t="n">
-        <v>94.33710152384405</v>
+        <v>94.3371015238441</v>
       </c>
       <c r="N17" t="n">
-        <v>95.86357445290301</v>
+        <v>95.86357445290305</v>
       </c>
       <c r="O17" t="n">
-        <v>90.52125498494703</v>
+        <v>90.52125498494708</v>
       </c>
       <c r="P17" t="n">
-        <v>77.2577968464014</v>
+        <v>77.25779684640145</v>
       </c>
       <c r="Q17" t="n">
-        <v>58.01738795175167</v>
+        <v>58.01738795175169</v>
       </c>
       <c r="R17" t="n">
-        <v>33.74828161196626</v>
+        <v>33.74828161196628</v>
       </c>
       <c r="S17" t="n">
-        <v>12.24267553750313</v>
+        <v>12.24267553750314</v>
       </c>
       <c r="T17" t="n">
         <v>2.351829387401863</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04298032004389466</v>
+        <v>0.04298032004389468</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.287456232463383</v>
+        <v>0.2874562324633831</v>
       </c>
       <c r="H18" t="n">
-        <v>2.776222034580568</v>
+        <v>2.776222034580569</v>
       </c>
       <c r="I18" t="n">
-        <v>9.897067652796302</v>
+        <v>9.897067652796306</v>
       </c>
       <c r="J18" t="n">
-        <v>27.15831010304269</v>
+        <v>27.15831010304271</v>
       </c>
       <c r="K18" t="n">
-        <v>46.41787767808935</v>
+        <v>46.41787767808938</v>
       </c>
       <c r="L18" t="n">
-        <v>62.41456486008674</v>
+        <v>62.41456486008677</v>
       </c>
       <c r="M18" t="n">
-        <v>72.83485328688435</v>
+        <v>72.8348532868844</v>
       </c>
       <c r="N18" t="n">
-        <v>74.7625751265182</v>
+        <v>74.76257512651823</v>
       </c>
       <c r="O18" t="n">
-        <v>68.39315018614533</v>
+        <v>68.39315018614538</v>
       </c>
       <c r="P18" t="n">
-        <v>54.89153267101215</v>
+        <v>54.89153267101217</v>
       </c>
       <c r="Q18" t="n">
-        <v>36.69353591936096</v>
+        <v>36.69353591936098</v>
       </c>
       <c r="R18" t="n">
-        <v>17.84750187171777</v>
+        <v>17.84750187171778</v>
       </c>
       <c r="S18" t="n">
-        <v>5.339373440712396</v>
+        <v>5.339373440712398</v>
       </c>
       <c r="T18" t="n">
-        <v>1.158650340499337</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U18" t="n">
         <v>0.01891159424101205</v>
@@ -32382,34 +32382,34 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2409936490166124</v>
+        <v>0.2409936490166125</v>
       </c>
       <c r="H19" t="n">
-        <v>2.142652624893155</v>
+        <v>2.142652624893156</v>
       </c>
       <c r="I19" t="n">
-        <v>7.247336281335946</v>
+        <v>7.24733628133595</v>
       </c>
       <c r="J19" t="n">
-        <v>17.0382509854745</v>
+        <v>17.03825098547451</v>
       </c>
       <c r="K19" t="n">
-        <v>27.99908031302096</v>
+        <v>27.99908031302098</v>
       </c>
       <c r="L19" t="n">
-        <v>35.82918305470618</v>
+        <v>35.8291830547062</v>
       </c>
       <c r="M19" t="n">
-        <v>37.77684990903134</v>
+        <v>37.77684990903136</v>
       </c>
       <c r="N19" t="n">
-        <v>36.87860085360582</v>
+        <v>36.87860085360583</v>
       </c>
       <c r="O19" t="n">
-        <v>34.06335686282083</v>
+        <v>34.06335686282085</v>
       </c>
       <c r="P19" t="n">
-        <v>29.14708642288191</v>
+        <v>29.14708642288192</v>
       </c>
       <c r="Q19" t="n">
         <v>20.17993182810925</v>
@@ -32418,13 +32418,13 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S19" t="n">
-        <v>4.199862046953144</v>
+        <v>4.199862046953146</v>
       </c>
       <c r="T19" t="n">
         <v>1.029700136707344</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01314510812817887</v>
+        <v>0.01314510812817888</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5372540005486833</v>
+        <v>0.5372540005486836</v>
       </c>
       <c r="H20" t="n">
-        <v>5.502152533119204</v>
+        <v>5.502152533119207</v>
       </c>
       <c r="I20" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J20" t="n">
-        <v>45.59876172906885</v>
+        <v>45.59876172906888</v>
       </c>
       <c r="K20" t="n">
-        <v>68.34072357229464</v>
+        <v>68.34072357229466</v>
       </c>
       <c r="L20" t="n">
-        <v>84.78271069158642</v>
+        <v>84.78271069158646</v>
       </c>
       <c r="M20" t="n">
-        <v>94.33710152384405</v>
+        <v>94.3371015238441</v>
       </c>
       <c r="N20" t="n">
-        <v>95.86357445290301</v>
+        <v>95.86357445290305</v>
       </c>
       <c r="O20" t="n">
-        <v>90.52125498494703</v>
+        <v>90.52125498494708</v>
       </c>
       <c r="P20" t="n">
-        <v>77.2577968464014</v>
+        <v>77.25779684640145</v>
       </c>
       <c r="Q20" t="n">
-        <v>58.01738795175167</v>
+        <v>58.01738795175169</v>
       </c>
       <c r="R20" t="n">
-        <v>33.74828161196626</v>
+        <v>33.74828161196628</v>
       </c>
       <c r="S20" t="n">
-        <v>12.24267553750313</v>
+        <v>12.24267553750314</v>
       </c>
       <c r="T20" t="n">
         <v>2.351829387401863</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04298032004389466</v>
+        <v>0.04298032004389468</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.287456232463383</v>
+        <v>0.2874562324633831</v>
       </c>
       <c r="H21" t="n">
-        <v>2.776222034580568</v>
+        <v>2.776222034580569</v>
       </c>
       <c r="I21" t="n">
-        <v>9.897067652796302</v>
+        <v>9.897067652796306</v>
       </c>
       <c r="J21" t="n">
-        <v>27.15831010304269</v>
+        <v>27.15831010304271</v>
       </c>
       <c r="K21" t="n">
-        <v>46.41787767808935</v>
+        <v>46.41787767808938</v>
       </c>
       <c r="L21" t="n">
-        <v>62.41456486008674</v>
+        <v>62.41456486008677</v>
       </c>
       <c r="M21" t="n">
-        <v>72.83485328688435</v>
+        <v>72.8348532868844</v>
       </c>
       <c r="N21" t="n">
-        <v>74.7625751265182</v>
+        <v>74.76257512651823</v>
       </c>
       <c r="O21" t="n">
-        <v>68.39315018614533</v>
+        <v>68.39315018614538</v>
       </c>
       <c r="P21" t="n">
-        <v>54.89153267101215</v>
+        <v>54.89153267101217</v>
       </c>
       <c r="Q21" t="n">
-        <v>36.69353591936096</v>
+        <v>36.69353591936098</v>
       </c>
       <c r="R21" t="n">
-        <v>17.84750187171777</v>
+        <v>17.84750187171778</v>
       </c>
       <c r="S21" t="n">
-        <v>5.339373440712396</v>
+        <v>5.339373440712398</v>
       </c>
       <c r="T21" t="n">
-        <v>1.158650340499337</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U21" t="n">
         <v>0.01891159424101205</v>
@@ -32619,34 +32619,34 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2409936490166124</v>
+        <v>0.2409936490166125</v>
       </c>
       <c r="H22" t="n">
-        <v>2.142652624893155</v>
+        <v>2.142652624893156</v>
       </c>
       <c r="I22" t="n">
-        <v>7.247336281335946</v>
+        <v>7.24733628133595</v>
       </c>
       <c r="J22" t="n">
-        <v>17.0382509854745</v>
+        <v>17.03825098547451</v>
       </c>
       <c r="K22" t="n">
-        <v>27.99908031302096</v>
+        <v>27.99908031302098</v>
       </c>
       <c r="L22" t="n">
-        <v>35.82918305470618</v>
+        <v>35.8291830547062</v>
       </c>
       <c r="M22" t="n">
-        <v>37.77684990903134</v>
+        <v>37.77684990903136</v>
       </c>
       <c r="N22" t="n">
-        <v>36.87860085360582</v>
+        <v>36.87860085360583</v>
       </c>
       <c r="O22" t="n">
-        <v>34.06335686282083</v>
+        <v>34.06335686282085</v>
       </c>
       <c r="P22" t="n">
-        <v>29.14708642288191</v>
+        <v>29.14708642288192</v>
       </c>
       <c r="Q22" t="n">
         <v>20.17993182810925</v>
@@ -32655,13 +32655,13 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S22" t="n">
-        <v>4.199862046953144</v>
+        <v>4.199862046953146</v>
       </c>
       <c r="T22" t="n">
         <v>1.029700136707344</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01314510812817887</v>
+        <v>0.01314510812817888</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5372540005486833</v>
+        <v>0.5372540005486836</v>
       </c>
       <c r="H23" t="n">
-        <v>5.502152533119204</v>
+        <v>5.502152533119207</v>
       </c>
       <c r="I23" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J23" t="n">
-        <v>45.59876172906885</v>
+        <v>45.59876172906888</v>
       </c>
       <c r="K23" t="n">
-        <v>68.34072357229464</v>
+        <v>68.34072357229466</v>
       </c>
       <c r="L23" t="n">
-        <v>84.78271069158642</v>
+        <v>84.78271069158646</v>
       </c>
       <c r="M23" t="n">
-        <v>94.33710152384405</v>
+        <v>94.3371015238441</v>
       </c>
       <c r="N23" t="n">
-        <v>95.86357445290301</v>
+        <v>95.86357445290305</v>
       </c>
       <c r="O23" t="n">
-        <v>90.52125498494703</v>
+        <v>90.52125498494708</v>
       </c>
       <c r="P23" t="n">
-        <v>77.2577968464014</v>
+        <v>77.25779684640145</v>
       </c>
       <c r="Q23" t="n">
-        <v>58.01738795175167</v>
+        <v>58.01738795175169</v>
       </c>
       <c r="R23" t="n">
-        <v>33.74828161196626</v>
+        <v>33.74828161196628</v>
       </c>
       <c r="S23" t="n">
-        <v>12.24267553750313</v>
+        <v>12.24267553750314</v>
       </c>
       <c r="T23" t="n">
         <v>2.351829387401863</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04298032004389466</v>
+        <v>0.04298032004389468</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.287456232463383</v>
+        <v>0.2874562324633831</v>
       </c>
       <c r="H24" t="n">
-        <v>2.776222034580568</v>
+        <v>2.776222034580569</v>
       </c>
       <c r="I24" t="n">
-        <v>9.897067652796302</v>
+        <v>9.897067652796306</v>
       </c>
       <c r="J24" t="n">
-        <v>27.15831010304269</v>
+        <v>27.15831010304271</v>
       </c>
       <c r="K24" t="n">
-        <v>46.41787767808935</v>
+        <v>46.41787767808938</v>
       </c>
       <c r="L24" t="n">
-        <v>62.41456486008674</v>
+        <v>62.41456486008677</v>
       </c>
       <c r="M24" t="n">
-        <v>72.83485328688435</v>
+        <v>72.8348532868844</v>
       </c>
       <c r="N24" t="n">
-        <v>74.7625751265182</v>
+        <v>74.76257512651823</v>
       </c>
       <c r="O24" t="n">
-        <v>68.39315018614533</v>
+        <v>68.39315018614538</v>
       </c>
       <c r="P24" t="n">
-        <v>54.89153267101215</v>
+        <v>54.89153267101217</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.69353591936096</v>
+        <v>36.69353591936098</v>
       </c>
       <c r="R24" t="n">
-        <v>17.84750187171777</v>
+        <v>17.84750187171778</v>
       </c>
       <c r="S24" t="n">
-        <v>5.339373440712396</v>
+        <v>5.339373440712398</v>
       </c>
       <c r="T24" t="n">
-        <v>1.158650340499337</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U24" t="n">
         <v>0.01891159424101205</v>
@@ -32856,34 +32856,34 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2409936490166124</v>
+        <v>0.2409936490166125</v>
       </c>
       <c r="H25" t="n">
-        <v>2.142652624893155</v>
+        <v>2.142652624893156</v>
       </c>
       <c r="I25" t="n">
-        <v>7.247336281335946</v>
+        <v>7.24733628133595</v>
       </c>
       <c r="J25" t="n">
-        <v>17.0382509854745</v>
+        <v>17.03825098547451</v>
       </c>
       <c r="K25" t="n">
-        <v>27.99908031302096</v>
+        <v>27.99908031302098</v>
       </c>
       <c r="L25" t="n">
-        <v>35.82918305470618</v>
+        <v>35.8291830547062</v>
       </c>
       <c r="M25" t="n">
-        <v>37.77684990903134</v>
+        <v>37.77684990903136</v>
       </c>
       <c r="N25" t="n">
-        <v>36.87860085360582</v>
+        <v>36.87860085360583</v>
       </c>
       <c r="O25" t="n">
-        <v>34.06335686282083</v>
+        <v>34.06335686282085</v>
       </c>
       <c r="P25" t="n">
-        <v>29.14708642288191</v>
+        <v>29.14708642288192</v>
       </c>
       <c r="Q25" t="n">
         <v>20.17993182810925</v>
@@ -32892,13 +32892,13 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S25" t="n">
-        <v>4.199862046953144</v>
+        <v>4.199862046953146</v>
       </c>
       <c r="T25" t="n">
         <v>1.029700136707344</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01314510812817887</v>
+        <v>0.01314510812817888</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5372540005486833</v>
+        <v>0.5372540005486836</v>
       </c>
       <c r="H26" t="n">
-        <v>5.502152533119204</v>
+        <v>5.502152533119207</v>
       </c>
       <c r="I26" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J26" t="n">
-        <v>45.59876172906885</v>
+        <v>45.59876172906888</v>
       </c>
       <c r="K26" t="n">
-        <v>68.34072357229464</v>
+        <v>68.34072357229466</v>
       </c>
       <c r="L26" t="n">
-        <v>84.78271069158642</v>
+        <v>84.78271069158646</v>
       </c>
       <c r="M26" t="n">
-        <v>94.33710152384405</v>
+        <v>94.3371015238441</v>
       </c>
       <c r="N26" t="n">
-        <v>95.86357445290301</v>
+        <v>95.86357445290305</v>
       </c>
       <c r="O26" t="n">
-        <v>90.52125498494703</v>
+        <v>90.52125498494708</v>
       </c>
       <c r="P26" t="n">
-        <v>77.2577968464014</v>
+        <v>77.25779684640145</v>
       </c>
       <c r="Q26" t="n">
-        <v>58.01738795175167</v>
+        <v>58.01738795175169</v>
       </c>
       <c r="R26" t="n">
-        <v>33.74828161196626</v>
+        <v>33.74828161196628</v>
       </c>
       <c r="S26" t="n">
-        <v>12.24267553750313</v>
+        <v>12.24267553750314</v>
       </c>
       <c r="T26" t="n">
         <v>2.351829387401863</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04298032004389466</v>
+        <v>0.04298032004389468</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.287456232463383</v>
+        <v>0.2874562324633831</v>
       </c>
       <c r="H27" t="n">
-        <v>2.776222034580568</v>
+        <v>2.776222034580569</v>
       </c>
       <c r="I27" t="n">
-        <v>9.897067652796302</v>
+        <v>9.897067652796306</v>
       </c>
       <c r="J27" t="n">
-        <v>27.15831010304269</v>
+        <v>27.15831010304271</v>
       </c>
       <c r="K27" t="n">
-        <v>46.41787767808935</v>
+        <v>46.41787767808938</v>
       </c>
       <c r="L27" t="n">
-        <v>62.41456486008674</v>
+        <v>62.41456486008677</v>
       </c>
       <c r="M27" t="n">
-        <v>72.83485328688435</v>
+        <v>72.8348532868844</v>
       </c>
       <c r="N27" t="n">
-        <v>74.7625751265182</v>
+        <v>74.76257512651823</v>
       </c>
       <c r="O27" t="n">
-        <v>68.39315018614533</v>
+        <v>68.39315018614538</v>
       </c>
       <c r="P27" t="n">
-        <v>54.89153267101215</v>
+        <v>54.89153267101217</v>
       </c>
       <c r="Q27" t="n">
-        <v>36.69353591936096</v>
+        <v>36.69353591936098</v>
       </c>
       <c r="R27" t="n">
-        <v>17.84750187171777</v>
+        <v>17.84750187171778</v>
       </c>
       <c r="S27" t="n">
-        <v>5.339373440712396</v>
+        <v>5.339373440712398</v>
       </c>
       <c r="T27" t="n">
-        <v>1.158650340499337</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U27" t="n">
         <v>0.01891159424101205</v>
@@ -33093,34 +33093,34 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2409936490166124</v>
+        <v>0.2409936490166125</v>
       </c>
       <c r="H28" t="n">
-        <v>2.142652624893155</v>
+        <v>2.142652624893156</v>
       </c>
       <c r="I28" t="n">
-        <v>7.247336281335946</v>
+        <v>7.24733628133595</v>
       </c>
       <c r="J28" t="n">
-        <v>17.0382509854745</v>
+        <v>17.03825098547451</v>
       </c>
       <c r="K28" t="n">
-        <v>27.99908031302096</v>
+        <v>27.99908031302098</v>
       </c>
       <c r="L28" t="n">
-        <v>35.82918305470618</v>
+        <v>35.8291830547062</v>
       </c>
       <c r="M28" t="n">
-        <v>37.77684990903134</v>
+        <v>37.77684990903136</v>
       </c>
       <c r="N28" t="n">
-        <v>36.87860085360582</v>
+        <v>36.87860085360583</v>
       </c>
       <c r="O28" t="n">
-        <v>34.06335686282083</v>
+        <v>34.06335686282085</v>
       </c>
       <c r="P28" t="n">
-        <v>29.14708642288191</v>
+        <v>29.14708642288192</v>
       </c>
       <c r="Q28" t="n">
         <v>20.17993182810925</v>
@@ -33129,13 +33129,13 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S28" t="n">
-        <v>4.199862046953144</v>
+        <v>4.199862046953146</v>
       </c>
       <c r="T28" t="n">
         <v>1.029700136707344</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01314510812817887</v>
+        <v>0.01314510812817888</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5372540005486833</v>
+        <v>0.5372540005486836</v>
       </c>
       <c r="H29" t="n">
-        <v>5.502152533119204</v>
+        <v>5.502152533119207</v>
       </c>
       <c r="I29" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J29" t="n">
-        <v>45.59876172906885</v>
+        <v>45.59876172906888</v>
       </c>
       <c r="K29" t="n">
-        <v>68.34072357229464</v>
+        <v>68.34072357229466</v>
       </c>
       <c r="L29" t="n">
-        <v>84.78271069158642</v>
+        <v>84.78271069158646</v>
       </c>
       <c r="M29" t="n">
-        <v>94.33710152384405</v>
+        <v>94.3371015238441</v>
       </c>
       <c r="N29" t="n">
-        <v>95.86357445290301</v>
+        <v>95.86357445290305</v>
       </c>
       <c r="O29" t="n">
-        <v>90.52125498494703</v>
+        <v>90.52125498494708</v>
       </c>
       <c r="P29" t="n">
-        <v>77.2577968464014</v>
+        <v>77.25779684640145</v>
       </c>
       <c r="Q29" t="n">
-        <v>58.01738795175167</v>
+        <v>58.01738795175169</v>
       </c>
       <c r="R29" t="n">
-        <v>33.74828161196626</v>
+        <v>33.74828161196628</v>
       </c>
       <c r="S29" t="n">
-        <v>12.24267553750313</v>
+        <v>12.24267553750314</v>
       </c>
       <c r="T29" t="n">
         <v>2.351829387401863</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04298032004389466</v>
+        <v>0.04298032004389468</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.287456232463383</v>
+        <v>0.2874562324633831</v>
       </c>
       <c r="H30" t="n">
-        <v>2.776222034580568</v>
+        <v>2.776222034580569</v>
       </c>
       <c r="I30" t="n">
-        <v>9.897067652796302</v>
+        <v>9.897067652796306</v>
       </c>
       <c r="J30" t="n">
-        <v>27.15831010304269</v>
+        <v>27.15831010304271</v>
       </c>
       <c r="K30" t="n">
-        <v>46.41787767808935</v>
+        <v>46.41787767808938</v>
       </c>
       <c r="L30" t="n">
-        <v>62.41456486008674</v>
+        <v>62.41456486008677</v>
       </c>
       <c r="M30" t="n">
-        <v>72.83485328688435</v>
+        <v>72.8348532868844</v>
       </c>
       <c r="N30" t="n">
-        <v>74.7625751265182</v>
+        <v>74.76257512651823</v>
       </c>
       <c r="O30" t="n">
-        <v>68.39315018614533</v>
+        <v>68.39315018614538</v>
       </c>
       <c r="P30" t="n">
-        <v>54.89153267101215</v>
+        <v>54.89153267101217</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.69353591936096</v>
+        <v>36.69353591936098</v>
       </c>
       <c r="R30" t="n">
-        <v>17.84750187171777</v>
+        <v>17.84750187171778</v>
       </c>
       <c r="S30" t="n">
-        <v>5.339373440712396</v>
+        <v>5.339373440712398</v>
       </c>
       <c r="T30" t="n">
-        <v>1.158650340499337</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U30" t="n">
         <v>0.01891159424101205</v>
@@ -33330,34 +33330,34 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2409936490166124</v>
+        <v>0.2409936490166125</v>
       </c>
       <c r="H31" t="n">
-        <v>2.142652624893155</v>
+        <v>2.142652624893156</v>
       </c>
       <c r="I31" t="n">
-        <v>7.247336281335946</v>
+        <v>7.24733628133595</v>
       </c>
       <c r="J31" t="n">
-        <v>17.0382509854745</v>
+        <v>17.03825098547451</v>
       </c>
       <c r="K31" t="n">
-        <v>27.99908031302096</v>
+        <v>27.99908031302098</v>
       </c>
       <c r="L31" t="n">
-        <v>35.82918305470618</v>
+        <v>35.8291830547062</v>
       </c>
       <c r="M31" t="n">
-        <v>37.77684990903134</v>
+        <v>37.77684990903136</v>
       </c>
       <c r="N31" t="n">
-        <v>36.87860085360582</v>
+        <v>36.87860085360583</v>
       </c>
       <c r="O31" t="n">
-        <v>34.06335686282083</v>
+        <v>34.06335686282085</v>
       </c>
       <c r="P31" t="n">
-        <v>29.14708642288191</v>
+        <v>29.14708642288192</v>
       </c>
       <c r="Q31" t="n">
         <v>20.17993182810925</v>
@@ -33366,13 +33366,13 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S31" t="n">
-        <v>4.199862046953144</v>
+        <v>4.199862046953146</v>
       </c>
       <c r="T31" t="n">
         <v>1.029700136707344</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01314510812817887</v>
+        <v>0.01314510812817888</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5372540005486833</v>
+        <v>0.5372540005486836</v>
       </c>
       <c r="H32" t="n">
-        <v>5.502152533119204</v>
+        <v>5.502152533119207</v>
       </c>
       <c r="I32" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J32" t="n">
-        <v>45.59876172906885</v>
+        <v>45.59876172906888</v>
       </c>
       <c r="K32" t="n">
-        <v>68.34072357229464</v>
+        <v>68.34072357229466</v>
       </c>
       <c r="L32" t="n">
-        <v>84.78271069158642</v>
+        <v>84.78271069158646</v>
       </c>
       <c r="M32" t="n">
-        <v>94.33710152384405</v>
+        <v>94.3371015238441</v>
       </c>
       <c r="N32" t="n">
-        <v>95.86357445290301</v>
+        <v>95.86357445290305</v>
       </c>
       <c r="O32" t="n">
-        <v>90.52125498494703</v>
+        <v>90.52125498494708</v>
       </c>
       <c r="P32" t="n">
-        <v>77.2577968464014</v>
+        <v>77.25779684640145</v>
       </c>
       <c r="Q32" t="n">
-        <v>58.01738795175167</v>
+        <v>58.01738795175169</v>
       </c>
       <c r="R32" t="n">
-        <v>33.74828161196626</v>
+        <v>33.74828161196628</v>
       </c>
       <c r="S32" t="n">
-        <v>12.24267553750313</v>
+        <v>12.24267553750314</v>
       </c>
       <c r="T32" t="n">
         <v>2.351829387401863</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04298032004389466</v>
+        <v>0.04298032004389468</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.287456232463383</v>
+        <v>0.2874562324633831</v>
       </c>
       <c r="H33" t="n">
-        <v>2.776222034580568</v>
+        <v>2.776222034580569</v>
       </c>
       <c r="I33" t="n">
-        <v>9.897067652796302</v>
+        <v>9.897067652796306</v>
       </c>
       <c r="J33" t="n">
-        <v>27.15831010304269</v>
+        <v>27.15831010304271</v>
       </c>
       <c r="K33" t="n">
-        <v>46.41787767808935</v>
+        <v>46.41787767808938</v>
       </c>
       <c r="L33" t="n">
-        <v>62.41456486008674</v>
+        <v>62.41456486008677</v>
       </c>
       <c r="M33" t="n">
-        <v>72.83485328688435</v>
+        <v>72.8348532868844</v>
       </c>
       <c r="N33" t="n">
-        <v>74.7625751265182</v>
+        <v>74.76257512651823</v>
       </c>
       <c r="O33" t="n">
-        <v>68.39315018614533</v>
+        <v>68.39315018614538</v>
       </c>
       <c r="P33" t="n">
-        <v>54.89153267101215</v>
+        <v>54.89153267101217</v>
       </c>
       <c r="Q33" t="n">
-        <v>36.69353591936096</v>
+        <v>36.69353591936098</v>
       </c>
       <c r="R33" t="n">
-        <v>17.84750187171777</v>
+        <v>17.84750187171778</v>
       </c>
       <c r="S33" t="n">
-        <v>5.339373440712396</v>
+        <v>5.339373440712398</v>
       </c>
       <c r="T33" t="n">
-        <v>1.158650340499337</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U33" t="n">
         <v>0.01891159424101205</v>
@@ -33567,34 +33567,34 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2409936490166124</v>
+        <v>0.2409936490166125</v>
       </c>
       <c r="H34" t="n">
-        <v>2.142652624893155</v>
+        <v>2.142652624893156</v>
       </c>
       <c r="I34" t="n">
-        <v>7.247336281335946</v>
+        <v>7.24733628133595</v>
       </c>
       <c r="J34" t="n">
-        <v>17.0382509854745</v>
+        <v>17.03825098547451</v>
       </c>
       <c r="K34" t="n">
-        <v>27.99908031302096</v>
+        <v>27.99908031302098</v>
       </c>
       <c r="L34" t="n">
-        <v>35.82918305470618</v>
+        <v>35.8291830547062</v>
       </c>
       <c r="M34" t="n">
-        <v>37.77684990903134</v>
+        <v>37.77684990903136</v>
       </c>
       <c r="N34" t="n">
-        <v>36.87860085360582</v>
+        <v>36.87860085360583</v>
       </c>
       <c r="O34" t="n">
-        <v>34.06335686282083</v>
+        <v>34.06335686282085</v>
       </c>
       <c r="P34" t="n">
-        <v>29.14708642288191</v>
+        <v>29.14708642288192</v>
       </c>
       <c r="Q34" t="n">
         <v>20.17993182810925</v>
@@ -33603,13 +33603,13 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S34" t="n">
-        <v>4.199862046953144</v>
+        <v>4.199862046953146</v>
       </c>
       <c r="T34" t="n">
         <v>1.029700136707344</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01314510812817887</v>
+        <v>0.01314510812817888</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5372540005486833</v>
+        <v>0.5372540005486836</v>
       </c>
       <c r="H35" t="n">
-        <v>5.502152533119204</v>
+        <v>5.502152533119207</v>
       </c>
       <c r="I35" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J35" t="n">
-        <v>45.59876172906885</v>
+        <v>45.59876172906888</v>
       </c>
       <c r="K35" t="n">
-        <v>68.34072357229464</v>
+        <v>68.34072357229466</v>
       </c>
       <c r="L35" t="n">
-        <v>84.78271069158642</v>
+        <v>84.78271069158646</v>
       </c>
       <c r="M35" t="n">
-        <v>94.33710152384405</v>
+        <v>94.3371015238441</v>
       </c>
       <c r="N35" t="n">
-        <v>95.86357445290301</v>
+        <v>95.86357445290305</v>
       </c>
       <c r="O35" t="n">
-        <v>90.52125498494703</v>
+        <v>90.52125498494708</v>
       </c>
       <c r="P35" t="n">
-        <v>77.2577968464014</v>
+        <v>77.25779684640145</v>
       </c>
       <c r="Q35" t="n">
-        <v>58.01738795175167</v>
+        <v>58.01738795175169</v>
       </c>
       <c r="R35" t="n">
-        <v>33.74828161196626</v>
+        <v>33.74828161196628</v>
       </c>
       <c r="S35" t="n">
-        <v>12.24267553750313</v>
+        <v>12.24267553750314</v>
       </c>
       <c r="T35" t="n">
         <v>2.351829387401863</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04298032004389466</v>
+        <v>0.04298032004389468</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.287456232463383</v>
+        <v>0.2874562324633831</v>
       </c>
       <c r="H36" t="n">
-        <v>2.776222034580568</v>
+        <v>2.776222034580569</v>
       </c>
       <c r="I36" t="n">
-        <v>9.897067652796302</v>
+        <v>9.897067652796306</v>
       </c>
       <c r="J36" t="n">
-        <v>27.15831010304269</v>
+        <v>27.15831010304271</v>
       </c>
       <c r="K36" t="n">
-        <v>46.41787767808935</v>
+        <v>46.41787767808938</v>
       </c>
       <c r="L36" t="n">
-        <v>62.41456486008674</v>
+        <v>62.41456486008677</v>
       </c>
       <c r="M36" t="n">
-        <v>72.83485328688435</v>
+        <v>72.8348532868844</v>
       </c>
       <c r="N36" t="n">
-        <v>74.7625751265182</v>
+        <v>74.76257512651823</v>
       </c>
       <c r="O36" t="n">
-        <v>68.39315018614533</v>
+        <v>68.39315018614538</v>
       </c>
       <c r="P36" t="n">
-        <v>54.89153267101215</v>
+        <v>54.89153267101217</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.69353591936096</v>
+        <v>36.69353591936098</v>
       </c>
       <c r="R36" t="n">
-        <v>17.84750187171777</v>
+        <v>17.84750187171778</v>
       </c>
       <c r="S36" t="n">
-        <v>5.339373440712396</v>
+        <v>5.339373440712398</v>
       </c>
       <c r="T36" t="n">
-        <v>1.158650340499337</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U36" t="n">
         <v>0.01891159424101205</v>
@@ -33804,34 +33804,34 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2409936490166124</v>
+        <v>0.2409936490166125</v>
       </c>
       <c r="H37" t="n">
-        <v>2.142652624893155</v>
+        <v>2.142652624893156</v>
       </c>
       <c r="I37" t="n">
-        <v>7.247336281335946</v>
+        <v>7.24733628133595</v>
       </c>
       <c r="J37" t="n">
-        <v>17.0382509854745</v>
+        <v>17.03825098547451</v>
       </c>
       <c r="K37" t="n">
-        <v>27.99908031302096</v>
+        <v>27.99908031302098</v>
       </c>
       <c r="L37" t="n">
-        <v>35.82918305470618</v>
+        <v>35.8291830547062</v>
       </c>
       <c r="M37" t="n">
-        <v>37.77684990903134</v>
+        <v>37.77684990903136</v>
       </c>
       <c r="N37" t="n">
-        <v>36.87860085360582</v>
+        <v>36.87860085360583</v>
       </c>
       <c r="O37" t="n">
-        <v>34.06335686282083</v>
+        <v>34.06335686282085</v>
       </c>
       <c r="P37" t="n">
-        <v>29.14708642288191</v>
+        <v>29.14708642288192</v>
       </c>
       <c r="Q37" t="n">
         <v>20.17993182810925</v>
@@ -33840,13 +33840,13 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S37" t="n">
-        <v>4.199862046953144</v>
+        <v>4.199862046953146</v>
       </c>
       <c r="T37" t="n">
         <v>1.029700136707344</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01314510812817887</v>
+        <v>0.01314510812817888</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5372540005486833</v>
+        <v>0.5372540005486836</v>
       </c>
       <c r="H38" t="n">
-        <v>5.502152533119204</v>
+        <v>5.502152533119207</v>
       </c>
       <c r="I38" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J38" t="n">
-        <v>45.59876172906885</v>
+        <v>45.59876172906888</v>
       </c>
       <c r="K38" t="n">
-        <v>68.34072357229464</v>
+        <v>68.34072357229466</v>
       </c>
       <c r="L38" t="n">
-        <v>84.78271069158642</v>
+        <v>84.78271069158646</v>
       </c>
       <c r="M38" t="n">
-        <v>94.33710152384405</v>
+        <v>94.3371015238441</v>
       </c>
       <c r="N38" t="n">
-        <v>95.86357445290301</v>
+        <v>95.86357445290305</v>
       </c>
       <c r="O38" t="n">
-        <v>90.52125498494703</v>
+        <v>90.52125498494708</v>
       </c>
       <c r="P38" t="n">
-        <v>77.2577968464014</v>
+        <v>77.25779684640145</v>
       </c>
       <c r="Q38" t="n">
-        <v>58.01738795175167</v>
+        <v>58.01738795175169</v>
       </c>
       <c r="R38" t="n">
-        <v>33.74828161196626</v>
+        <v>33.74828161196628</v>
       </c>
       <c r="S38" t="n">
-        <v>12.24267553750313</v>
+        <v>12.24267553750314</v>
       </c>
       <c r="T38" t="n">
         <v>2.351829387401863</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04298032004389466</v>
+        <v>0.04298032004389468</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.287456232463383</v>
+        <v>0.2874562324633831</v>
       </c>
       <c r="H39" t="n">
-        <v>2.776222034580568</v>
+        <v>2.776222034580569</v>
       </c>
       <c r="I39" t="n">
-        <v>9.897067652796302</v>
+        <v>9.897067652796306</v>
       </c>
       <c r="J39" t="n">
-        <v>27.15831010304269</v>
+        <v>27.15831010304271</v>
       </c>
       <c r="K39" t="n">
-        <v>46.41787767808935</v>
+        <v>46.41787767808938</v>
       </c>
       <c r="L39" t="n">
-        <v>62.41456486008674</v>
+        <v>62.41456486008677</v>
       </c>
       <c r="M39" t="n">
-        <v>72.83485328688435</v>
+        <v>72.8348532868844</v>
       </c>
       <c r="N39" t="n">
-        <v>74.7625751265182</v>
+        <v>74.76257512651823</v>
       </c>
       <c r="O39" t="n">
-        <v>68.39315018614533</v>
+        <v>68.39315018614538</v>
       </c>
       <c r="P39" t="n">
-        <v>54.89153267101215</v>
+        <v>54.89153267101217</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.69353591936096</v>
+        <v>36.69353591936098</v>
       </c>
       <c r="R39" t="n">
-        <v>17.84750187171777</v>
+        <v>17.84750187171778</v>
       </c>
       <c r="S39" t="n">
-        <v>5.339373440712396</v>
+        <v>5.339373440712398</v>
       </c>
       <c r="T39" t="n">
-        <v>1.158650340499337</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U39" t="n">
         <v>0.01891159424101205</v>
@@ -34041,34 +34041,34 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2409936490166124</v>
+        <v>0.2409936490166125</v>
       </c>
       <c r="H40" t="n">
-        <v>2.142652624893155</v>
+        <v>2.142652624893156</v>
       </c>
       <c r="I40" t="n">
-        <v>7.247336281335946</v>
+        <v>7.24733628133595</v>
       </c>
       <c r="J40" t="n">
-        <v>17.0382509854745</v>
+        <v>17.03825098547451</v>
       </c>
       <c r="K40" t="n">
-        <v>27.99908031302096</v>
+        <v>27.99908031302098</v>
       </c>
       <c r="L40" t="n">
-        <v>35.82918305470618</v>
+        <v>35.8291830547062</v>
       </c>
       <c r="M40" t="n">
-        <v>37.77684990903134</v>
+        <v>37.77684990903136</v>
       </c>
       <c r="N40" t="n">
-        <v>36.87860085360582</v>
+        <v>36.87860085360583</v>
       </c>
       <c r="O40" t="n">
-        <v>34.06335686282083</v>
+        <v>34.06335686282085</v>
       </c>
       <c r="P40" t="n">
-        <v>29.14708642288191</v>
+        <v>29.14708642288192</v>
       </c>
       <c r="Q40" t="n">
         <v>20.17993182810925</v>
@@ -34077,13 +34077,13 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S40" t="n">
-        <v>4.199862046953144</v>
+        <v>4.199862046953146</v>
       </c>
       <c r="T40" t="n">
         <v>1.029700136707344</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01314510812817887</v>
+        <v>0.01314510812817888</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5372540005486833</v>
+        <v>0.5372540005486836</v>
       </c>
       <c r="H41" t="n">
-        <v>5.502152533119204</v>
+        <v>5.502152533119207</v>
       </c>
       <c r="I41" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J41" t="n">
-        <v>45.59876172906885</v>
+        <v>45.59876172906888</v>
       </c>
       <c r="K41" t="n">
-        <v>68.34072357229464</v>
+        <v>68.34072357229466</v>
       </c>
       <c r="L41" t="n">
-        <v>84.78271069158642</v>
+        <v>84.78271069158646</v>
       </c>
       <c r="M41" t="n">
-        <v>94.33710152384405</v>
+        <v>94.3371015238441</v>
       </c>
       <c r="N41" t="n">
-        <v>95.86357445290301</v>
+        <v>95.86357445290305</v>
       </c>
       <c r="O41" t="n">
-        <v>90.52125498494703</v>
+        <v>90.52125498494708</v>
       </c>
       <c r="P41" t="n">
-        <v>77.2577968464014</v>
+        <v>77.25779684640145</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.01738795175167</v>
+        <v>58.01738795175169</v>
       </c>
       <c r="R41" t="n">
-        <v>33.74828161196626</v>
+        <v>33.74828161196628</v>
       </c>
       <c r="S41" t="n">
-        <v>12.24267553750313</v>
+        <v>12.24267553750314</v>
       </c>
       <c r="T41" t="n">
         <v>2.351829387401863</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04298032004389466</v>
+        <v>0.04298032004389468</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.287456232463383</v>
+        <v>0.2874562324633831</v>
       </c>
       <c r="H42" t="n">
-        <v>2.776222034580568</v>
+        <v>2.776222034580569</v>
       </c>
       <c r="I42" t="n">
-        <v>9.897067652796302</v>
+        <v>9.897067652796306</v>
       </c>
       <c r="J42" t="n">
-        <v>27.15831010304269</v>
+        <v>27.15831010304271</v>
       </c>
       <c r="K42" t="n">
-        <v>46.41787767808935</v>
+        <v>46.41787767808938</v>
       </c>
       <c r="L42" t="n">
-        <v>62.41456486008674</v>
+        <v>62.41456486008677</v>
       </c>
       <c r="M42" t="n">
-        <v>72.83485328688435</v>
+        <v>72.8348532868844</v>
       </c>
       <c r="N42" t="n">
-        <v>74.7625751265182</v>
+        <v>74.76257512651823</v>
       </c>
       <c r="O42" t="n">
-        <v>68.39315018614533</v>
+        <v>68.39315018614538</v>
       </c>
       <c r="P42" t="n">
-        <v>54.89153267101215</v>
+        <v>54.89153267101217</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.69353591936096</v>
+        <v>36.69353591936098</v>
       </c>
       <c r="R42" t="n">
-        <v>17.84750187171777</v>
+        <v>17.84750187171778</v>
       </c>
       <c r="S42" t="n">
-        <v>5.339373440712396</v>
+        <v>5.339373440712398</v>
       </c>
       <c r="T42" t="n">
-        <v>1.158650340499337</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U42" t="n">
         <v>0.01891159424101205</v>
@@ -34278,34 +34278,34 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2409936490166124</v>
+        <v>0.2409936490166125</v>
       </c>
       <c r="H43" t="n">
-        <v>2.142652624893155</v>
+        <v>2.142652624893156</v>
       </c>
       <c r="I43" t="n">
-        <v>7.247336281335946</v>
+        <v>7.24733628133595</v>
       </c>
       <c r="J43" t="n">
-        <v>17.0382509854745</v>
+        <v>17.03825098547451</v>
       </c>
       <c r="K43" t="n">
-        <v>27.99908031302096</v>
+        <v>27.99908031302098</v>
       </c>
       <c r="L43" t="n">
-        <v>35.82918305470618</v>
+        <v>35.8291830547062</v>
       </c>
       <c r="M43" t="n">
-        <v>37.77684990903134</v>
+        <v>37.77684990903136</v>
       </c>
       <c r="N43" t="n">
-        <v>36.87860085360582</v>
+        <v>36.87860085360583</v>
       </c>
       <c r="O43" t="n">
-        <v>34.06335686282083</v>
+        <v>34.06335686282085</v>
       </c>
       <c r="P43" t="n">
-        <v>29.14708642288191</v>
+        <v>29.14708642288192</v>
       </c>
       <c r="Q43" t="n">
         <v>20.17993182810925</v>
@@ -34314,13 +34314,13 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S43" t="n">
-        <v>4.199862046953144</v>
+        <v>4.199862046953146</v>
       </c>
       <c r="T43" t="n">
         <v>1.029700136707344</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01314510812817887</v>
+        <v>0.01314510812817888</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5372540005486833</v>
+        <v>0.5372540005486836</v>
       </c>
       <c r="H44" t="n">
-        <v>5.502152533119204</v>
+        <v>5.502152533119207</v>
       </c>
       <c r="I44" t="n">
         <v>20.71248485615314</v>
       </c>
       <c r="J44" t="n">
-        <v>45.59876172906885</v>
+        <v>45.59876172906888</v>
       </c>
       <c r="K44" t="n">
-        <v>68.34072357229464</v>
+        <v>68.34072357229466</v>
       </c>
       <c r="L44" t="n">
-        <v>84.78271069158642</v>
+        <v>84.78271069158646</v>
       </c>
       <c r="M44" t="n">
-        <v>94.33710152384405</v>
+        <v>94.3371015238441</v>
       </c>
       <c r="N44" t="n">
-        <v>95.86357445290301</v>
+        <v>95.86357445290305</v>
       </c>
       <c r="O44" t="n">
-        <v>90.52125498494703</v>
+        <v>90.52125498494708</v>
       </c>
       <c r="P44" t="n">
-        <v>77.2577968464014</v>
+        <v>77.25779684640145</v>
       </c>
       <c r="Q44" t="n">
-        <v>58.01738795175167</v>
+        <v>58.01738795175169</v>
       </c>
       <c r="R44" t="n">
-        <v>33.74828161196626</v>
+        <v>33.74828161196628</v>
       </c>
       <c r="S44" t="n">
-        <v>12.24267553750313</v>
+        <v>12.24267553750314</v>
       </c>
       <c r="T44" t="n">
         <v>2.351829387401863</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04298032004389466</v>
+        <v>0.04298032004389468</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.287456232463383</v>
+        <v>0.2874562324633831</v>
       </c>
       <c r="H45" t="n">
-        <v>2.776222034580568</v>
+        <v>2.776222034580569</v>
       </c>
       <c r="I45" t="n">
-        <v>9.897067652796302</v>
+        <v>9.897067652796306</v>
       </c>
       <c r="J45" t="n">
-        <v>27.15831010304269</v>
+        <v>27.15831010304271</v>
       </c>
       <c r="K45" t="n">
-        <v>46.41787767808935</v>
+        <v>46.41787767808938</v>
       </c>
       <c r="L45" t="n">
-        <v>62.41456486008674</v>
+        <v>62.41456486008677</v>
       </c>
       <c r="M45" t="n">
-        <v>72.83485328688435</v>
+        <v>72.8348532868844</v>
       </c>
       <c r="N45" t="n">
-        <v>74.7625751265182</v>
+        <v>74.76257512651823</v>
       </c>
       <c r="O45" t="n">
-        <v>68.39315018614533</v>
+        <v>68.39315018614538</v>
       </c>
       <c r="P45" t="n">
-        <v>54.89153267101215</v>
+        <v>54.89153267101217</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.69353591936096</v>
+        <v>36.69353591936098</v>
       </c>
       <c r="R45" t="n">
-        <v>17.84750187171777</v>
+        <v>17.84750187171778</v>
       </c>
       <c r="S45" t="n">
-        <v>5.339373440712396</v>
+        <v>5.339373440712398</v>
       </c>
       <c r="T45" t="n">
-        <v>1.158650340499337</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U45" t="n">
         <v>0.01891159424101205</v>
@@ -34515,34 +34515,34 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2409936490166124</v>
+        <v>0.2409936490166125</v>
       </c>
       <c r="H46" t="n">
-        <v>2.142652624893155</v>
+        <v>2.142652624893156</v>
       </c>
       <c r="I46" t="n">
-        <v>7.247336281335946</v>
+        <v>7.24733628133595</v>
       </c>
       <c r="J46" t="n">
-        <v>17.0382509854745</v>
+        <v>17.03825098547451</v>
       </c>
       <c r="K46" t="n">
-        <v>27.99908031302096</v>
+        <v>27.99908031302098</v>
       </c>
       <c r="L46" t="n">
-        <v>35.82918305470618</v>
+        <v>35.8291830547062</v>
       </c>
       <c r="M46" t="n">
-        <v>37.77684990903134</v>
+        <v>37.77684990903136</v>
       </c>
       <c r="N46" t="n">
-        <v>36.87860085360582</v>
+        <v>36.87860085360583</v>
       </c>
       <c r="O46" t="n">
-        <v>34.06335686282083</v>
+        <v>34.06335686282085</v>
       </c>
       <c r="P46" t="n">
-        <v>29.14708642288191</v>
+        <v>29.14708642288192</v>
       </c>
       <c r="Q46" t="n">
         <v>20.17993182810925</v>
@@ -34551,13 +34551,13 @@
         <v>10.83595080032877</v>
       </c>
       <c r="S46" t="n">
-        <v>4.199862046953144</v>
+        <v>4.199862046953146</v>
       </c>
       <c r="T46" t="n">
         <v>1.029700136707344</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01314510812817887</v>
+        <v>0.01314510812817888</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,13 +35182,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>9.605247316954339</v>
+        <v>9.605247316954337</v>
       </c>
       <c r="O8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>10.00967878293136</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>9.605247316954339</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="M10" t="n">
+        <v>9.605247316954339</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="N10" t="n">
-        <v>9.605247316954333</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>118.3245640248321</v>
+        <v>118.3245640248322</v>
       </c>
       <c r="K11" t="n">
         <v>310.9067559407621</v>
@@ -35416,7 +35416,7 @@
         <v>436.1820774440574</v>
       </c>
       <c r="M11" t="n">
-        <v>302.8441264149144</v>
+        <v>491.5483805673673</v>
       </c>
       <c r="N11" t="n">
         <v>478.0164620162523</v>
@@ -35425,7 +35425,7 @@
         <v>398.6066938463955</v>
       </c>
       <c r="P11" t="n">
-        <v>307.7193084181723</v>
+        <v>119.0150542657193</v>
       </c>
       <c r="Q11" t="n">
         <v>153.4035027866375</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>88.02108437890749</v>
+        <v>88.0210843789075</v>
       </c>
       <c r="K12" t="n">
-        <v>278.2265166277749</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>431.9315801834359</v>
       </c>
       <c r="M12" t="n">
-        <v>562.7675336002444</v>
+        <v>374.2058445796087</v>
       </c>
       <c r="N12" t="n">
-        <v>124.404315057019</v>
+        <v>591.1925207054294</v>
       </c>
       <c r="O12" t="n">
         <v>464.5547166347826</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>46.13811767707026</v>
+        <v>46.13811767707018</v>
       </c>
       <c r="K13" t="n">
-        <v>150.499237189074</v>
+        <v>150.4992371890739</v>
       </c>
       <c r="L13" t="n">
-        <v>226.0090284717856</v>
+        <v>226.0090284717855</v>
       </c>
       <c r="M13" t="n">
-        <v>245.5187425254463</v>
+        <v>245.5187425254462</v>
       </c>
       <c r="N13" t="n">
-        <v>245.0536607649689</v>
+        <v>245.0536607649688</v>
       </c>
       <c r="O13" t="n">
         <v>222.0781185379105</v>
       </c>
       <c r="P13" t="n">
-        <v>181.3081483327677</v>
+        <v>181.3081483327676</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.58449678682615</v>
+        <v>70.58449678682607</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>118.3245640248322</v>
       </c>
       <c r="K14" t="n">
-        <v>240.5270658131414</v>
+        <v>310.9067559407621</v>
       </c>
       <c r="L14" t="n">
         <v>436.1820774440574</v>
       </c>
       <c r="M14" t="n">
-        <v>491.5483805673672</v>
+        <v>491.5483805673673</v>
       </c>
       <c r="N14" t="n">
         <v>478.0164620162523</v>
       </c>
       <c r="O14" t="n">
-        <v>398.6066938463955</v>
+        <v>209.9024396939425</v>
       </c>
       <c r="P14" t="n">
-        <v>307.7193084181723</v>
+        <v>307.7193084181724</v>
       </c>
       <c r="Q14" t="n">
         <v>153.4035027866375</v>
@@ -35732,7 +35732,7 @@
         <v>431.9315801834359</v>
       </c>
       <c r="M15" t="n">
-        <v>184.0004123307413</v>
+        <v>544.0393382095284</v>
       </c>
       <c r="N15" t="n">
         <v>591.1925207054294</v>
@@ -35741,7 +35741,7 @@
         <v>464.5547166347826</v>
       </c>
       <c r="P15" t="n">
-        <v>360.0389258787872</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>196.0588185310723</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>118.3245640248321</v>
+        <v>118.3245640248322</v>
       </c>
       <c r="K17" t="n">
-        <v>122.2025017883093</v>
+        <v>310.9067559407621</v>
       </c>
       <c r="L17" t="n">
         <v>436.1820774440574</v>
       </c>
       <c r="M17" t="n">
-        <v>491.5483805673672</v>
+        <v>491.5483805673673</v>
       </c>
       <c r="N17" t="n">
         <v>478.0164620162523</v>
@@ -35899,7 +35899,7 @@
         <v>398.6066938463955</v>
       </c>
       <c r="P17" t="n">
-        <v>307.7193084181723</v>
+        <v>119.0150542657193</v>
       </c>
       <c r="Q17" t="n">
         <v>153.4035027866375</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>88.0210843789075</v>
       </c>
       <c r="K18" t="n">
         <v>278.2265166277749</v>
@@ -35972,10 +35972,10 @@
         <v>562.7675336002444</v>
       </c>
       <c r="N18" t="n">
-        <v>591.1925207054294</v>
+        <v>588.9590316918004</v>
       </c>
       <c r="O18" t="n">
-        <v>85.7875953652787</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>360.0389258787872</v>
@@ -36057,7 +36057,7 @@
         <v>133.5215856463458</v>
       </c>
       <c r="P19" t="n">
-        <v>92.75161544120292</v>
+        <v>92.75161544120293</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>118.3245640248322</v>
       </c>
       <c r="K20" t="n">
-        <v>310.9067559407621</v>
+        <v>122.2025017883091</v>
       </c>
       <c r="L20" t="n">
         <v>436.1820774440574</v>
       </c>
       <c r="M20" t="n">
-        <v>421.1686904397466</v>
+        <v>491.5483805673673</v>
       </c>
       <c r="N20" t="n">
         <v>478.0164620162523</v>
@@ -36136,7 +36136,7 @@
         <v>398.6066938463955</v>
       </c>
       <c r="P20" t="n">
-        <v>307.7193084181723</v>
+        <v>307.7193084181724</v>
       </c>
       <c r="Q20" t="n">
         <v>153.4035027866375</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>88.02108437890749</v>
+        <v>88.0210843789075</v>
       </c>
       <c r="K21" t="n">
         <v>278.2265166277749</v>
       </c>
       <c r="L21" t="n">
-        <v>431.9315801834359</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>562.7675336002444</v>
+        <v>527.9109081352697</v>
       </c>
       <c r="N21" t="n">
-        <v>320.4631335880903</v>
+        <v>591.1925207054294</v>
       </c>
       <c r="O21" t="n">
         <v>464.5547166347826</v>
@@ -36218,7 +36218,7 @@
         <v>360.0389258787872</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>196.0588185310723</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36294,7 +36294,7 @@
         <v>133.5215856463458</v>
       </c>
       <c r="P22" t="n">
-        <v>92.75161544120292</v>
+        <v>92.75161544120293</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>118.3245640248322</v>
       </c>
       <c r="K23" t="n">
         <v>310.9067559407621</v>
@@ -36364,7 +36364,7 @@
         <v>436.1820774440574</v>
       </c>
       <c r="M23" t="n">
-        <v>491.5483805673672</v>
+        <v>302.8441264149143</v>
       </c>
       <c r="N23" t="n">
         <v>478.0164620162523</v>
@@ -36373,10 +36373,10 @@
         <v>398.6066938463955</v>
       </c>
       <c r="P23" t="n">
-        <v>307.7193084181723</v>
+        <v>307.7193084181724</v>
       </c>
       <c r="Q23" t="n">
-        <v>83.02381265901691</v>
+        <v>153.4035027866375</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>88.02108437890749</v>
+        <v>88.0210843789075</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>278.2265166277749</v>
       </c>
       <c r="L24" t="n">
         <v>431.9315801834359</v>
@@ -36446,13 +36446,13 @@
         <v>562.7675336002444</v>
       </c>
       <c r="N24" t="n">
-        <v>591.1925207054294</v>
+        <v>124.4043150570178</v>
       </c>
       <c r="O24" t="n">
         <v>464.5547166347826</v>
       </c>
       <c r="P24" t="n">
-        <v>171.477236858152</v>
+        <v>360.0389258787872</v>
       </c>
       <c r="Q24" t="n">
         <v>196.0588185310723</v>
@@ -36531,7 +36531,7 @@
         <v>133.5215856463458</v>
       </c>
       <c r="P25" t="n">
-        <v>92.75161544120292</v>
+        <v>92.75161544120293</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,19 +36595,19 @@
         <v>220.8546076702492</v>
       </c>
       <c r="K26" t="n">
-        <v>413.4367995861791</v>
+        <v>312.2929205579744</v>
       </c>
       <c r="L26" t="n">
-        <v>437.5682420612692</v>
+        <v>538.7121210894744</v>
       </c>
       <c r="M26" t="n">
         <v>594.0784242127843</v>
       </c>
       <c r="N26" t="n">
-        <v>580.5465056616692</v>
+        <v>580.5465056616694</v>
       </c>
       <c r="O26" t="n">
-        <v>501.1367374918126</v>
+        <v>501.1367374918125</v>
       </c>
       <c r="P26" t="n">
         <v>410.2493520635894</v>
@@ -36616,7 +36616,7 @@
         <v>255.9335464320546</v>
       </c>
       <c r="R26" t="n">
-        <v>46.54642161827814</v>
+        <v>46.54642161827815</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>88.02108437890749</v>
+        <v>88.0210843789075</v>
       </c>
       <c r="K27" t="n">
-        <v>278.2265166277749</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>431.9315801834359</v>
@@ -36683,7 +36683,7 @@
         <v>562.7675336002444</v>
       </c>
       <c r="N27" t="n">
-        <v>320.4631335880905</v>
+        <v>402.6308316847931</v>
       </c>
       <c r="O27" t="n">
         <v>464.5547166347826</v>
@@ -36692,7 +36692,7 @@
         <v>360.0389258787872</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>196.0588185310723</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,13 +36759,13 @@
         <v>239.9825392256379</v>
       </c>
       <c r="M28" t="n">
-        <v>259.4922532792987</v>
+        <v>259.4922532792986</v>
       </c>
       <c r="N28" t="n">
         <v>259.0271715188212</v>
       </c>
       <c r="O28" t="n">
-        <v>236.0516292917624</v>
+        <v>236.0516292917628</v>
       </c>
       <c r="P28" t="n">
         <v>195.28165908662</v>
@@ -36832,16 +36832,16 @@
         <v>220.8546076702492</v>
       </c>
       <c r="K29" t="n">
-        <v>413.4367995861791</v>
+        <v>413.4367995861792</v>
       </c>
       <c r="L29" t="n">
-        <v>437.5682420612692</v>
+        <v>437.5682420612683</v>
       </c>
       <c r="M29" t="n">
-        <v>594.0784242127843</v>
+        <v>594.0784242127844</v>
       </c>
       <c r="N29" t="n">
-        <v>580.5465056616692</v>
+        <v>580.5465056616694</v>
       </c>
       <c r="O29" t="n">
         <v>501.1367374918126</v>
@@ -36853,7 +36853,7 @@
         <v>255.9335464320546</v>
       </c>
       <c r="R29" t="n">
-        <v>46.54642161827814</v>
+        <v>46.54642161827816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>88.02108437890749</v>
+        <v>88.0210843789075</v>
       </c>
       <c r="K30" t="n">
         <v>278.2265166277749</v>
@@ -36917,7 +36917,7 @@
         <v>431.9315801834359</v>
       </c>
       <c r="M30" t="n">
-        <v>562.7675336002444</v>
+        <v>95.97932795183274</v>
       </c>
       <c r="N30" t="n">
         <v>591.1925207054294</v>
@@ -36926,10 +36926,10 @@
         <v>464.5547166347826</v>
       </c>
       <c r="P30" t="n">
-        <v>89.30953876144872</v>
+        <v>360.0389258787872</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>196.0588185310723</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.11162843092256</v>
+        <v>60.11162843092257</v>
       </c>
       <c r="K31" t="n">
         <v>164.4727479429263</v>
@@ -37002,7 +37002,7 @@
         <v>259.0271715188212</v>
       </c>
       <c r="O31" t="n">
-        <v>236.0516292917628</v>
+        <v>236.0516292917629</v>
       </c>
       <c r="P31" t="n">
         <v>195.28165908662</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>223.4443117649691</v>
+        <v>223.4443117649693</v>
       </c>
       <c r="K32" t="n">
-        <v>416.026503680899</v>
+        <v>416.0265036808992</v>
       </c>
       <c r="L32" t="n">
-        <v>541.3018251841943</v>
+        <v>436.1820774440574</v>
       </c>
       <c r="M32" t="n">
-        <v>537.7023765012087</v>
+        <v>596.6681283075044</v>
       </c>
       <c r="N32" t="n">
-        <v>478.0164620162523</v>
+        <v>583.1362097563895</v>
       </c>
       <c r="O32" t="n">
-        <v>503.7264415865325</v>
+        <v>444.7606897802343</v>
       </c>
       <c r="P32" t="n">
-        <v>412.8390561583092</v>
+        <v>412.8390561583095</v>
       </c>
       <c r="Q32" t="n">
-        <v>258.5232505267745</v>
+        <v>258.5232505267747</v>
       </c>
       <c r="R32" t="n">
-        <v>49.13612571299802</v>
+        <v>49.13612571299822</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>88.02108437890749</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>278.2265166277749</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>431.9315801834359</v>
@@ -37157,16 +37157,16 @@
         <v>562.7675336002444</v>
       </c>
       <c r="N33" t="n">
-        <v>320.4631335880903</v>
+        <v>591.1925207054294</v>
       </c>
       <c r="O33" t="n">
-        <v>464.5547166347826</v>
+        <v>364.0141119930537</v>
       </c>
       <c r="P33" t="n">
         <v>360.0389258787872</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>196.0588185310723</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>62.70133252564244</v>
+        <v>62.70133252564263</v>
       </c>
       <c r="K34" t="n">
-        <v>167.0624520376462</v>
+        <v>167.0624520376464</v>
       </c>
       <c r="L34" t="n">
-        <v>242.5722433203578</v>
+        <v>242.572243320358</v>
       </c>
       <c r="M34" t="n">
-        <v>262.0819573740185</v>
+        <v>199.0877553727923</v>
       </c>
       <c r="N34" t="n">
-        <v>198.6226736123187</v>
+        <v>261.6168756135413</v>
       </c>
       <c r="O34" t="n">
-        <v>238.6413333864827</v>
+        <v>238.6413333864829</v>
       </c>
       <c r="P34" t="n">
-        <v>197.8713631813399</v>
+        <v>197.8713631813401</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.14771163539834</v>
+        <v>87.14771163539854</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>118.3245640248321</v>
+        <v>118.3245640248322</v>
       </c>
       <c r="K35" t="n">
         <v>310.9067559407621</v>
@@ -37312,7 +37312,7 @@
         <v>436.1820774440574</v>
       </c>
       <c r="M35" t="n">
-        <v>491.5483805673671</v>
+        <v>491.5483805673669</v>
       </c>
       <c r="N35" t="n">
         <v>478.0164620162523</v>
@@ -37321,7 +37321,7 @@
         <v>398.6066938463955</v>
       </c>
       <c r="P35" t="n">
-        <v>307.7193084181723</v>
+        <v>307.7193084181724</v>
       </c>
       <c r="Q35" t="n">
         <v>153.4035027866375</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>88.0210843789075</v>
       </c>
       <c r="K36" t="n">
-        <v>278.2265166277749</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>431.9315801834359</v>
@@ -37394,7 +37394,7 @@
         <v>562.7675336002444</v>
       </c>
       <c r="N36" t="n">
-        <v>212.4253994359254</v>
+        <v>591.1925207054294</v>
       </c>
       <c r="O36" t="n">
         <v>464.5547166347826</v>
@@ -37403,7 +37403,7 @@
         <v>360.0389258787872</v>
       </c>
       <c r="Q36" t="n">
-        <v>196.0588185310723</v>
+        <v>7.497129510435722</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>133.5215856463458</v>
       </c>
       <c r="P37" t="n">
-        <v>92.75161544120292</v>
+        <v>92.75161544120293</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>118.3245640248321</v>
+        <v>118.3245640248322</v>
       </c>
       <c r="K38" t="n">
         <v>310.9067559407621</v>
@@ -37549,7 +37549,7 @@
         <v>436.1820774440574</v>
       </c>
       <c r="M38" t="n">
-        <v>491.5483805673672</v>
+        <v>491.5483805673673</v>
       </c>
       <c r="N38" t="n">
         <v>478.0164620162523</v>
@@ -37558,7 +37558,7 @@
         <v>398.6066938463955</v>
       </c>
       <c r="P38" t="n">
-        <v>307.7193084181723</v>
+        <v>307.7193084181724</v>
       </c>
       <c r="Q38" t="n">
         <v>153.4035027866375</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>88.02108437890749</v>
+        <v>88.0210843789075</v>
       </c>
       <c r="K39" t="n">
-        <v>278.2265166277749</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>431.9315801834359</v>
@@ -37631,16 +37631,16 @@
         <v>562.7675336002444</v>
       </c>
       <c r="N39" t="n">
-        <v>320.4631335880903</v>
+        <v>591.1925207054294</v>
       </c>
       <c r="O39" t="n">
-        <v>464.5547166347826</v>
+        <v>275.9930276141461</v>
       </c>
       <c r="P39" t="n">
         <v>360.0389258787872</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>196.0588185310723</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>133.5215856463458</v>
       </c>
       <c r="P40" t="n">
-        <v>92.75161544120292</v>
+        <v>92.75161544120293</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>118.3245640248321</v>
+        <v>118.3245640248322</v>
       </c>
       <c r="K41" t="n">
         <v>310.9067559407621</v>
@@ -37786,7 +37786,7 @@
         <v>436.1820774440574</v>
       </c>
       <c r="M41" t="n">
-        <v>491.5483805673672</v>
+        <v>491.5483805673673</v>
       </c>
       <c r="N41" t="n">
         <v>478.0164620162523</v>
@@ -37795,7 +37795,7 @@
         <v>398.6066938463955</v>
       </c>
       <c r="P41" t="n">
-        <v>307.7193084181723</v>
+        <v>307.7193084181724</v>
       </c>
       <c r="Q41" t="n">
         <v>153.4035027866375</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>88.02108437890749</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>278.2265166277749</v>
       </c>
       <c r="L42" t="n">
-        <v>431.9315801834359</v>
+        <v>249.2232774450042</v>
       </c>
       <c r="M42" t="n">
         <v>562.7675336002444</v>
@@ -37871,13 +37871,13 @@
         <v>591.1925207054294</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>464.5547166347826</v>
       </c>
       <c r="P42" t="n">
         <v>360.0389258787872</v>
       </c>
       <c r="Q42" t="n">
-        <v>193.8253295174435</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37953,7 +37953,7 @@
         <v>133.5215856463458</v>
       </c>
       <c r="P43" t="n">
-        <v>92.75161544120292</v>
+        <v>92.75161544120293</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>118.3245640248321</v>
+        <v>118.3245640248322</v>
       </c>
       <c r="K44" t="n">
         <v>310.9067559407621</v>
@@ -38023,16 +38023,16 @@
         <v>436.1820774440574</v>
       </c>
       <c r="M44" t="n">
-        <v>491.5483805673672</v>
+        <v>491.5483805673669</v>
       </c>
       <c r="N44" t="n">
-        <v>478.0164620162524</v>
+        <v>478.0164620162523</v>
       </c>
       <c r="O44" t="n">
         <v>398.6066938463955</v>
       </c>
       <c r="P44" t="n">
-        <v>307.7193084181723</v>
+        <v>307.7193084181724</v>
       </c>
       <c r="Q44" t="n">
         <v>153.4035027866375</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>88.02108437890749</v>
+        <v>88.0210843789075</v>
       </c>
       <c r="K45" t="n">
-        <v>278.2265166277749</v>
+        <v>243.3698911627993</v>
       </c>
       <c r="L45" t="n">
-        <v>431.9315801834359</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>562.7675336002444</v>
       </c>
       <c r="N45" t="n">
-        <v>484.4432409358051</v>
+        <v>591.1925207054294</v>
       </c>
       <c r="O45" t="n">
         <v>464.5547166347826</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>360.0389258787872</v>
       </c>
       <c r="Q45" t="n">
         <v>196.0588185310723</v>
@@ -38190,7 +38190,7 @@
         <v>133.5215856463458</v>
       </c>
       <c r="P46" t="n">
-        <v>92.75161544120292</v>
+        <v>92.75161544120293</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
